--- a/Laporan_Keuangan_Masjid_Al_Multajam_2023.xlsx
+++ b/Laporan_Keuangan_Masjid_Al_Multajam_2023.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="647">
   <si>
     <t xml:space="preserve">MASJID CLUSTER GRAND SUTERA</t>
   </si>
@@ -385,7 +385,7 @@
     <t xml:space="preserve">13 Mei 2023</t>
   </si>
   <si>
-    <t xml:space="preserve">Konsumsi u/ gotong royong 2 hari [13-14 Mei 2023]</t>
+    <t xml:space="preserve">Snacks u/ gotong royong 2 hari [13-14 Mei 2023]</t>
   </si>
   <si>
     <t xml:space="preserve">14 Mei 2023</t>
@@ -394,6 +394,12 @@
     <t xml:space="preserve">Transport + Babat rumput</t>
   </si>
   <si>
+    <t xml:space="preserve">2 bungkus semen dan 2 kg kawat galvanis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 nasi bungkus untuk yg gotong royong</t>
+  </si>
+  <si>
     <t xml:space="preserve">18 Mei 2023</t>
   </si>
   <si>
@@ -419,6 +425,9 @@
   </si>
   <si>
     <t xml:space="preserve">Sisa Saldo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambil dari uang kas masjid </t>
   </si>
   <si>
     <t xml:space="preserve">Uang hasil sodaqoh saat zakat fitrah</t>
@@ -1670,6 +1679,9 @@
   </si>
   <si>
     <t xml:space="preserve">Emha Shalahuddin Fattah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/05/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Umiyati/Alvin</t>
@@ -4276,14 +4288,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:J103"/>
+  <dimension ref="B1:J105"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="E77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="E84" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A77" activeCellId="0" sqref="A77"/>
-      <selection pane="bottomRight" activeCell="E88" activeCellId="0" sqref="E88"/>
+      <selection pane="bottomLeft" activeCell="A84" activeCellId="0" sqref="A84"/>
+      <selection pane="bottomRight" activeCell="D104" activeCellId="0" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6250,7 +6262,7 @@
       <c r="E82" s="16"/>
       <c r="F82" s="16"/>
       <c r="G82" s="16" t="n">
-        <v>150000</v>
+        <v>75000</v>
       </c>
       <c r="H82" s="16"/>
       <c r="I82" s="16" t="n">
@@ -6259,7 +6271,7 @@
       </c>
       <c r="J82" s="16" t="n">
         <f aca="false">(I82+E82+F82)-(G82+H82)</f>
-        <v>2954000</v>
+        <v>3029000</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6280,141 +6292,169 @@
       <c r="H83" s="9"/>
       <c r="I83" s="9" t="n">
         <f aca="false">J82</f>
-        <v>2954000</v>
-      </c>
-      <c r="J83" s="9" t="n">
+        <v>3029000</v>
+      </c>
+      <c r="J83" s="16" t="n">
         <f aca="false">(I83+E83+F83)-(G83+H83)</f>
-        <v>2804000</v>
+        <v>2879000</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="10" t="n">
-        <v>77</v>
-      </c>
+      <c r="B84" s="10"/>
       <c r="C84" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D84" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D84" s="10" t="s">
-        <v>117</v>
-      </c>
       <c r="E84" s="9"/>
-      <c r="F84" s="9" t="n">
-        <v>1310000</v>
-      </c>
-      <c r="G84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9" t="n">
+        <v>80000</v>
+      </c>
       <c r="H84" s="9"/>
       <c r="I84" s="9" t="n">
         <f aca="false">J83</f>
-        <v>2804000</v>
-      </c>
-      <c r="J84" s="9" t="n">
+        <v>2879000</v>
+      </c>
+      <c r="J84" s="16" t="n">
         <f aca="false">(I84+E84+F84)-(G84+H84)</f>
-        <v>4114000</v>
+        <v>2799000</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="10" t="n">
-        <v>78</v>
-      </c>
+      <c r="B85" s="10"/>
       <c r="C85" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
       <c r="G85" s="9" t="n">
-        <v>3810000</v>
+        <v>156000</v>
       </c>
       <c r="H85" s="9"/>
       <c r="I85" s="9" t="n">
         <f aca="false">J84</f>
-        <v>4114000</v>
-      </c>
-      <c r="J85" s="9" t="n">
+        <v>2799000</v>
+      </c>
+      <c r="J85" s="16" t="n">
         <f aca="false">(I85+E85+F85)-(G85+H85)</f>
-        <v>304000</v>
+        <v>2643000</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="10"/>
+      <c r="B86" s="10" t="n">
+        <v>77</v>
+      </c>
       <c r="C86" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D86" s="10" t="s">
         <v>119</v>
       </c>
       <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9" t="n">
-        <v>180000</v>
-      </c>
+      <c r="F86" s="9" t="n">
+        <v>1310000</v>
+      </c>
+      <c r="G86" s="9"/>
       <c r="H86" s="9"/>
       <c r="I86" s="9" t="n">
         <f aca="false">J85</f>
-        <v>304000</v>
-      </c>
-      <c r="J86" s="9" t="n">
+        <v>2643000</v>
+      </c>
+      <c r="J86" s="16" t="n">
         <f aca="false">(I86+E86+F86)-(G86+H86)</f>
-        <v>124000</v>
+        <v>3953000</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="10" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C87" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D87" s="10" t="s">
         <v>120</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>121</v>
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
       <c r="G87" s="9" t="n">
-        <v>27000</v>
+        <v>3810000</v>
       </c>
       <c r="H87" s="9"/>
       <c r="I87" s="9" t="n">
         <f aca="false">J86</f>
-        <v>124000</v>
-      </c>
-      <c r="J87" s="9" t="n">
+        <v>3953000</v>
+      </c>
+      <c r="J87" s="16" t="n">
         <f aca="false">(I87+E87+F87)-(G87+H87)</f>
-        <v>97000</v>
+        <v>143000</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E88" s="3" t="n">
-        <f aca="false">SUM(E8:E87)</f>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9" t="n">
+        <v>180000</v>
+      </c>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9" t="n">
+        <f aca="false">J87</f>
+        <v>143000</v>
+      </c>
+      <c r="J88" s="16" t="n">
+        <f aca="false">(I88+E88+F88)-(G88+H88)</f>
+        <v>-37000</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="10" t="n">
+        <v>79</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9" t="n">
+        <v>27000</v>
+      </c>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9" t="n">
+        <f aca="false">J88</f>
+        <v>-37000</v>
+      </c>
+      <c r="J89" s="16" t="n">
+        <f aca="false">(I89+E89+F89)-(G89+H89)</f>
+        <v>-64000</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E90" s="3" t="n">
+        <f aca="false">SUM(E8:E89)</f>
         <v>11564000</v>
       </c>
-      <c r="F88" s="3" t="n">
-        <f aca="false">SUM(F8:F87)</f>
+      <c r="F90" s="3" t="n">
+        <f aca="false">SUM(F8:F89)</f>
         <v>2910000</v>
       </c>
-      <c r="G88" s="3" t="n">
-        <f aca="false">SUM(G8:G87)</f>
-        <v>14377000</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D91" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E91" s="18" t="n">
-        <f aca="false">E88+F88</f>
-        <v>14474000</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D92" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="E92" s="18" t="n">
-        <f aca="false">G88</f>
-        <v>14377000</v>
+      <c r="G90" s="3" t="n">
+        <f aca="false">SUM(G8:G89)</f>
+        <v>14538000</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6422,55 +6462,76 @@
         <v>124</v>
       </c>
       <c r="E93" s="18" t="n">
-        <f aca="false">E91-E92</f>
-        <v>97000</v>
+        <f aca="false">E90+F90</f>
+        <v>14474000</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D94" s="17"/>
-      <c r="E94" s="18"/>
+      <c r="D94" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E94" s="18" t="n">
+        <f aca="false">G90</f>
+        <v>14538000</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D95" s="17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E95" s="18" t="n">
-        <v>310000</v>
-      </c>
+        <f aca="false">E93-E94</f>
+        <v>-64000</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D96" s="17"/>
+      <c r="E96" s="18"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D97" s="17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D98" s="17" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="E97" s="18" t="n">
+        <v>310000</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D99" s="17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D100" s="17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D101" s="17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D102" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D103" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D104" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D105" s="17" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -6505,7 +6566,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6522,7 +6583,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -6537,7 +6598,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -6552,7 +6613,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -6567,40 +6628,40 @@
     </row>
     <row r="4" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6980,41 +7041,41 @@
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="31" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I1" s="32"/>
       <c r="J1" s="31" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="33" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="I2" s="32"/>
       <c r="J2" s="33" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="34" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
       <c r="E3" s="34" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
       <c r="I3" s="32"/>
       <c r="J3" s="34" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K3" s="34"/>
       <c r="L3" s="34"/>
       <c r="M3" s="34" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="N3" s="34"/>
       <c r="O3" s="34"/>
@@ -7022,42 +7083,42 @@
     <row r="4" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="35"/>
       <c r="B4" s="36" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H4" s="35"/>
       <c r="I4" s="38"/>
       <c r="J4" s="36" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K4" s="37" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L4" s="36" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M4" s="36" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N4" s="37" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O4" s="36" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P4" s="35"/>
     </row>
@@ -7231,84 +7292,84 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="34" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="41"/>
       <c r="E13" s="34" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="41"/>
       <c r="I13" s="32"/>
       <c r="J13" s="34" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K13" s="34"/>
       <c r="L13" s="41"/>
       <c r="M13" s="34" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="N13" s="34"/>
       <c r="O13" s="41"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="12" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I14" s="32"/>
       <c r="J14" s="12" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="12" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I15" s="32"/>
       <c r="J15" s="12" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I18" s="32"/>
       <c r="J18" s="12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7329,41 +7390,41 @@
     <row r="20" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="31" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I21" s="32"/>
       <c r="J21" s="31" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="33" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="I22" s="32"/>
       <c r="J22" s="33" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="34" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C23" s="34"/>
       <c r="D23" s="34"/>
       <c r="E23" s="34" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F23" s="34"/>
       <c r="G23" s="34"/>
       <c r="I23" s="32"/>
       <c r="J23" s="34" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K23" s="34"/>
       <c r="L23" s="34"/>
       <c r="M23" s="34" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="N23" s="34"/>
       <c r="O23" s="34"/>
@@ -7371,42 +7432,42 @@
     <row r="24" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="35"/>
       <c r="B24" s="36" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H24" s="35"/>
       <c r="I24" s="38"/>
       <c r="J24" s="36" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K24" s="37" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L24" s="36" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M24" s="36" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N24" s="37" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O24" s="36" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P24" s="35"/>
     </row>
@@ -7580,84 +7641,84 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="34" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C33" s="34"/>
       <c r="D33" s="41"/>
       <c r="E33" s="34" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F33" s="34"/>
       <c r="G33" s="41"/>
       <c r="I33" s="32"/>
       <c r="J33" s="34" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K33" s="34"/>
       <c r="L33" s="41"/>
       <c r="M33" s="34" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="N33" s="34"/>
       <c r="O33" s="41"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="12" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I34" s="32"/>
       <c r="J34" s="12" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="N34" s="12" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="12" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I35" s="32"/>
       <c r="J35" s="12" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L35" s="12" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="N35" s="12" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I38" s="32"/>
       <c r="J38" s="12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L38" s="12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="N38" s="12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7678,41 +7739,41 @@
     <row r="40" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="41" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="31" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I41" s="32"/>
       <c r="J41" s="31" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="33" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="I42" s="32"/>
       <c r="J42" s="33" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="34" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C43" s="34"/>
       <c r="D43" s="34"/>
       <c r="E43" s="34" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F43" s="34"/>
       <c r="G43" s="34"/>
       <c r="I43" s="32"/>
       <c r="J43" s="34" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K43" s="34"/>
       <c r="L43" s="34"/>
       <c r="M43" s="34" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="N43" s="34"/>
       <c r="O43" s="34"/>
@@ -7720,42 +7781,42 @@
     <row r="44" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="35"/>
       <c r="B44" s="36" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D44" s="36" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F44" s="37" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G44" s="36" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H44" s="35"/>
       <c r="I44" s="38"/>
       <c r="J44" s="36" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K44" s="37" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L44" s="36" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M44" s="36" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N44" s="37" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O44" s="36" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P44" s="35"/>
     </row>
@@ -7929,84 +7990,84 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="34" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C53" s="34"/>
       <c r="D53" s="41"/>
       <c r="E53" s="34" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F53" s="34"/>
       <c r="G53" s="41"/>
       <c r="I53" s="32"/>
       <c r="J53" s="34" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K53" s="34"/>
       <c r="L53" s="41"/>
       <c r="M53" s="34" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="N53" s="34"/>
       <c r="O53" s="41"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="12" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I54" s="32"/>
       <c r="J54" s="12" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="N54" s="12" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="12" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I55" s="32"/>
       <c r="J55" s="12" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L55" s="12" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="N55" s="12" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I58" s="32"/>
       <c r="J58" s="12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L58" s="12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="N58" s="12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -8090,7 +8151,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>11</v>
@@ -8101,13 +8162,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F5" s="45" t="n">
         <v>100000</v>
@@ -8115,7 +8176,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="44" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>20</v>
@@ -8127,18 +8188,18 @@
         <v>250000</v>
       </c>
       <c r="G6" s="46" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="44" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F7" s="45" t="n">
         <v>100000</v>
@@ -8146,13 +8207,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="44" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F8" s="45" t="n">
         <v>100000</v>
@@ -8160,13 +8221,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="44" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F9" s="45" t="n">
         <v>200000</v>
@@ -8174,13 +8235,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="44" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F10" s="45" t="n">
         <v>100000</v>
@@ -8188,30 +8249,30 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="44" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F11" s="45" t="n">
         <v>100000</v>
       </c>
       <c r="G11" s="46" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="44" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F12" s="45" t="n">
         <v>500000</v>
@@ -8219,13 +8280,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="44" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F13" s="45" t="n">
         <v>100000</v>
@@ -8233,13 +8294,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="44" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F14" s="45" t="n">
         <v>100000</v>
@@ -8247,13 +8308,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="44" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F15" s="45" t="n">
         <v>100000</v>
@@ -8261,13 +8322,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="44" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F16" s="45" t="n">
         <v>50000</v>
@@ -8275,13 +8336,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="44" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F17" s="45" t="n">
         <v>50000</v>
@@ -8289,13 +8350,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="44" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F18" s="45" t="n">
         <v>50000</v>
@@ -8303,13 +8364,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="44" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F19" s="45" t="n">
         <v>50000</v>
@@ -8317,13 +8378,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="44" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F20" s="45" t="n">
         <v>20000</v>
@@ -8331,13 +8392,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="44" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F21" s="45" t="n">
         <v>50000</v>
@@ -8345,30 +8406,30 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="44" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F22" s="45" t="n">
         <v>100000</v>
       </c>
       <c r="G22" s="46" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="44" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F23" s="45" t="n">
         <v>100000</v>
@@ -8376,13 +8437,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="44" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F24" s="45" t="n">
         <v>50000</v>
@@ -8390,13 +8451,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="44" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F25" s="45" t="n">
         <v>150000</v>
@@ -8404,13 +8465,13 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="44" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F26" s="45" t="n">
         <v>200000</v>
@@ -8418,13 +8479,13 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="44" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F27" s="45" t="n">
         <v>100000</v>
@@ -8432,13 +8493,13 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="44" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F28" s="45" t="n">
         <v>50000</v>
@@ -8446,13 +8507,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="44" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F29" s="45" t="n">
         <v>100000</v>
@@ -8460,13 +8521,13 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="44" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F30" s="45" t="n">
         <v>50000</v>
@@ -8474,13 +8535,13 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="44" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F31" s="45" t="n">
         <v>100000</v>
@@ -8614,7 +8675,7 @@
         <v>11</v>
       </c>
       <c r="L6" s="54" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8645,10 +8706,10 @@
       </c>
       <c r="B8" s="55"/>
       <c r="C8" s="56" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D8" s="57" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E8" s="58"/>
       <c r="F8" s="59" t="n">
@@ -8662,7 +8723,7 @@
       </c>
       <c r="K8" s="62"/>
       <c r="L8" s="48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8671,10 +8732,10 @@
       </c>
       <c r="B9" s="55"/>
       <c r="C9" s="56" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D9" s="57" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E9" s="58"/>
       <c r="F9" s="59" t="n">
@@ -8689,7 +8750,7 @@
       </c>
       <c r="K9" s="62"/>
       <c r="L9" s="48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8698,10 +8759,10 @@
       </c>
       <c r="B10" s="55"/>
       <c r="C10" s="56" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D10" s="57" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E10" s="58"/>
       <c r="F10" s="59" t="n">
@@ -8716,7 +8777,7 @@
       </c>
       <c r="K10" s="62"/>
       <c r="L10" s="48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8725,10 +8786,10 @@
       </c>
       <c r="B11" s="55"/>
       <c r="C11" s="56" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D11" s="57" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E11" s="58"/>
       <c r="F11" s="59" t="n">
@@ -8743,7 +8804,7 @@
       </c>
       <c r="K11" s="62"/>
       <c r="L11" s="48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8752,10 +8813,10 @@
       </c>
       <c r="B12" s="55"/>
       <c r="C12" s="56" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D12" s="57" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E12" s="58"/>
       <c r="F12" s="59" t="n">
@@ -8770,7 +8831,7 @@
       </c>
       <c r="K12" s="62"/>
       <c r="L12" s="48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8779,10 +8840,10 @@
       </c>
       <c r="B13" s="55"/>
       <c r="C13" s="56" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D13" s="57" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E13" s="58"/>
       <c r="F13" s="59" t="n">
@@ -8797,7 +8858,7 @@
       </c>
       <c r="K13" s="62"/>
       <c r="L13" s="48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8806,10 +8867,10 @@
       </c>
       <c r="B14" s="55"/>
       <c r="C14" s="56" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D14" s="57" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E14" s="58"/>
       <c r="F14" s="59" t="n">
@@ -8824,7 +8885,7 @@
       </c>
       <c r="K14" s="62"/>
       <c r="L14" s="48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8833,10 +8894,10 @@
       </c>
       <c r="B15" s="55"/>
       <c r="C15" s="56" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D15" s="57" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E15" s="58"/>
       <c r="F15" s="59" t="n">
@@ -8851,7 +8912,7 @@
       </c>
       <c r="K15" s="62"/>
       <c r="L15" s="48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8860,10 +8921,10 @@
       </c>
       <c r="B16" s="55"/>
       <c r="C16" s="56" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D16" s="57" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E16" s="58"/>
       <c r="F16" s="59" t="n">
@@ -8878,7 +8939,7 @@
       </c>
       <c r="K16" s="62"/>
       <c r="L16" s="48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8887,10 +8948,10 @@
       </c>
       <c r="B17" s="55"/>
       <c r="C17" s="56" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D17" s="57" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E17" s="58"/>
       <c r="F17" s="59" t="n">
@@ -8905,7 +8966,7 @@
       </c>
       <c r="K17" s="62"/>
       <c r="L17" s="48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8914,10 +8975,10 @@
       </c>
       <c r="B18" s="55"/>
       <c r="C18" s="56" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D18" s="57" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E18" s="58"/>
       <c r="F18" s="59" t="n">
@@ -8932,7 +8993,7 @@
       </c>
       <c r="K18" s="62"/>
       <c r="L18" s="48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8941,10 +9002,10 @@
       </c>
       <c r="B19" s="55"/>
       <c r="C19" s="63" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E19" s="64"/>
       <c r="F19" s="61" t="n">
@@ -8959,7 +9020,7 @@
       </c>
       <c r="K19" s="62"/>
       <c r="L19" s="48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8968,10 +9029,10 @@
       </c>
       <c r="B20" s="55"/>
       <c r="C20" s="63" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E20" s="64"/>
       <c r="F20" s="61" t="n">
@@ -8986,7 +9047,7 @@
       </c>
       <c r="K20" s="62"/>
       <c r="L20" s="48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8995,10 +9056,10 @@
       </c>
       <c r="B21" s="55"/>
       <c r="C21" s="63" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E21" s="64"/>
       <c r="F21" s="61" t="n">
@@ -9013,7 +9074,7 @@
       </c>
       <c r="K21" s="62"/>
       <c r="L21" s="48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9022,10 +9083,10 @@
       </c>
       <c r="B22" s="55"/>
       <c r="C22" s="63" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E22" s="64"/>
       <c r="F22" s="61" t="n">
@@ -9040,7 +9101,7 @@
       </c>
       <c r="K22" s="62"/>
       <c r="L22" s="48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9049,10 +9110,10 @@
       </c>
       <c r="B23" s="55"/>
       <c r="C23" s="63" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D23" s="53" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E23" s="64"/>
       <c r="F23" s="61" t="n">
@@ -9067,7 +9128,7 @@
       </c>
       <c r="K23" s="62"/>
       <c r="L23" s="48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9076,10 +9137,10 @@
       </c>
       <c r="B24" s="55"/>
       <c r="C24" s="63" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D24" s="53" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E24" s="64"/>
       <c r="F24" s="61" t="n">
@@ -9094,7 +9155,7 @@
       </c>
       <c r="K24" s="62"/>
       <c r="L24" s="48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9103,10 +9164,10 @@
       </c>
       <c r="B25" s="55"/>
       <c r="C25" s="63" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E25" s="64"/>
       <c r="F25" s="61" t="n">
@@ -9121,7 +9182,7 @@
       </c>
       <c r="K25" s="62"/>
       <c r="L25" s="48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9130,10 +9191,10 @@
       </c>
       <c r="B26" s="55"/>
       <c r="C26" s="63" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D26" s="53" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E26" s="64"/>
       <c r="F26" s="61" t="n">
@@ -9148,7 +9209,7 @@
       </c>
       <c r="K26" s="62"/>
       <c r="L26" s="48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9157,10 +9218,10 @@
       </c>
       <c r="B27" s="55"/>
       <c r="C27" s="63" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D27" s="53" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E27" s="64"/>
       <c r="F27" s="61" t="n">
@@ -9175,7 +9236,7 @@
       </c>
       <c r="K27" s="62"/>
       <c r="L27" s="48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9184,10 +9245,10 @@
       </c>
       <c r="B28" s="55"/>
       <c r="C28" s="63" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D28" s="53" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E28" s="64"/>
       <c r="F28" s="61" t="n">
@@ -9202,7 +9263,7 @@
       </c>
       <c r="K28" s="62"/>
       <c r="L28" s="48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9211,10 +9272,10 @@
       </c>
       <c r="B29" s="55"/>
       <c r="C29" s="63" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D29" s="53" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E29" s="64"/>
       <c r="F29" s="61" t="n">
@@ -9229,7 +9290,7 @@
       </c>
       <c r="K29" s="62"/>
       <c r="L29" s="48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9238,10 +9299,10 @@
       </c>
       <c r="B30" s="55"/>
       <c r="C30" s="63" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D30" s="53" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E30" s="64"/>
       <c r="F30" s="61" t="n">
@@ -9256,7 +9317,7 @@
       </c>
       <c r="K30" s="62"/>
       <c r="L30" s="48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9265,10 +9326,10 @@
       </c>
       <c r="B31" s="62"/>
       <c r="C31" s="63" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D31" s="53" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E31" s="64"/>
       <c r="F31" s="61" t="n">
@@ -9283,7 +9344,7 @@
       </c>
       <c r="K31" s="62"/>
       <c r="L31" s="48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9292,10 +9353,10 @@
       </c>
       <c r="B32" s="62"/>
       <c r="C32" s="63" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D32" s="53" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E32" s="64"/>
       <c r="F32" s="61" t="n">
@@ -9310,7 +9371,7 @@
       </c>
       <c r="K32" s="62"/>
       <c r="L32" s="48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9319,10 +9380,10 @@
       </c>
       <c r="B33" s="62"/>
       <c r="C33" s="63" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D33" s="53" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E33" s="64"/>
       <c r="F33" s="61" t="n">
@@ -9337,7 +9398,7 @@
       </c>
       <c r="K33" s="62"/>
       <c r="L33" s="48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9346,10 +9407,10 @@
       </c>
       <c r="B34" s="62"/>
       <c r="C34" s="63" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D34" s="53" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E34" s="64"/>
       <c r="F34" s="61" t="n">
@@ -9364,7 +9425,7 @@
       </c>
       <c r="K34" s="62"/>
       <c r="L34" s="48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9373,10 +9434,10 @@
       </c>
       <c r="B35" s="62"/>
       <c r="C35" s="63" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D35" s="53" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E35" s="64"/>
       <c r="F35" s="61" t="n">
@@ -9391,7 +9452,7 @@
       </c>
       <c r="K35" s="62"/>
       <c r="L35" s="48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9400,10 +9461,10 @@
       </c>
       <c r="B36" s="62"/>
       <c r="C36" s="63" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D36" s="53" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E36" s="64"/>
       <c r="F36" s="61" t="n">
@@ -9418,7 +9479,7 @@
       </c>
       <c r="K36" s="62"/>
       <c r="L36" s="48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9427,10 +9488,10 @@
       </c>
       <c r="B37" s="62"/>
       <c r="C37" s="63" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D37" s="53" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E37" s="64"/>
       <c r="F37" s="61" t="n">
@@ -9445,7 +9506,7 @@
       </c>
       <c r="K37" s="62"/>
       <c r="L37" s="48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9454,10 +9515,10 @@
       </c>
       <c r="B38" s="62"/>
       <c r="C38" s="63" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D38" s="53" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E38" s="64"/>
       <c r="F38" s="61" t="n">
@@ -9472,7 +9533,7 @@
       </c>
       <c r="K38" s="62"/>
       <c r="L38" s="48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9481,10 +9542,10 @@
       </c>
       <c r="B39" s="62"/>
       <c r="C39" s="63" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D39" s="53" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E39" s="64"/>
       <c r="F39" s="61" t="n">
@@ -9499,7 +9560,7 @@
       </c>
       <c r="K39" s="62"/>
       <c r="L39" s="48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9508,10 +9569,10 @@
       </c>
       <c r="B40" s="62"/>
       <c r="C40" s="63" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D40" s="53" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E40" s="64"/>
       <c r="F40" s="61" t="n">
@@ -9526,7 +9587,7 @@
       </c>
       <c r="K40" s="62"/>
       <c r="L40" s="48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9535,10 +9596,10 @@
       </c>
       <c r="B41" s="62"/>
       <c r="C41" s="63" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D41" s="53" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E41" s="64"/>
       <c r="F41" s="61" t="n">
@@ -9553,7 +9614,7 @@
       </c>
       <c r="K41" s="62"/>
       <c r="L41" s="48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9562,10 +9623,10 @@
       </c>
       <c r="B42" s="62"/>
       <c r="C42" s="63" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D42" s="53" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E42" s="64"/>
       <c r="F42" s="61" t="n">
@@ -9580,7 +9641,7 @@
       </c>
       <c r="K42" s="62"/>
       <c r="L42" s="48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9589,10 +9650,10 @@
       </c>
       <c r="B43" s="62"/>
       <c r="C43" s="63" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D43" s="53" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E43" s="64"/>
       <c r="F43" s="61" t="n">
@@ -9607,7 +9668,7 @@
       </c>
       <c r="K43" s="62"/>
       <c r="L43" s="48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9616,10 +9677,10 @@
       </c>
       <c r="B44" s="62"/>
       <c r="C44" s="63" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D44" s="53" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E44" s="64"/>
       <c r="F44" s="61" t="n">
@@ -9634,7 +9695,7 @@
       </c>
       <c r="K44" s="62"/>
       <c r="L44" s="48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9643,10 +9704,10 @@
       </c>
       <c r="B45" s="62"/>
       <c r="C45" s="63" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D45" s="53" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E45" s="64"/>
       <c r="F45" s="61" t="n">
@@ -9661,7 +9722,7 @@
       </c>
       <c r="K45" s="62"/>
       <c r="L45" s="48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9670,10 +9731,10 @@
       </c>
       <c r="B46" s="62"/>
       <c r="C46" s="63" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D46" s="53" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E46" s="64"/>
       <c r="F46" s="61" t="n">
@@ -9688,7 +9749,7 @@
       </c>
       <c r="K46" s="62"/>
       <c r="L46" s="48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9697,10 +9758,10 @@
       </c>
       <c r="B47" s="62"/>
       <c r="C47" s="63" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D47" s="53" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E47" s="64"/>
       <c r="F47" s="61" t="n">
@@ -9715,7 +9776,7 @@
       </c>
       <c r="K47" s="62"/>
       <c r="L47" s="48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9724,10 +9785,10 @@
       </c>
       <c r="B48" s="62"/>
       <c r="C48" s="63" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D48" s="53" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E48" s="64"/>
       <c r="F48" s="61" t="n">
@@ -9742,7 +9803,7 @@
       </c>
       <c r="K48" s="62"/>
       <c r="L48" s="48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9751,10 +9812,10 @@
       </c>
       <c r="B49" s="62"/>
       <c r="C49" s="63" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D49" s="53" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E49" s="64"/>
       <c r="F49" s="61" t="n">
@@ -9769,7 +9830,7 @@
       </c>
       <c r="K49" s="62"/>
       <c r="L49" s="48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9778,10 +9839,10 @@
       </c>
       <c r="B50" s="62"/>
       <c r="C50" s="63" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D50" s="53" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E50" s="64"/>
       <c r="F50" s="61" t="n">
@@ -9796,7 +9857,7 @@
       </c>
       <c r="K50" s="62"/>
       <c r="L50" s="48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9805,10 +9866,10 @@
       </c>
       <c r="B51" s="62"/>
       <c r="C51" s="63" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D51" s="53" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E51" s="64"/>
       <c r="F51" s="61" t="n">
@@ -9823,7 +9884,7 @@
       </c>
       <c r="K51" s="62"/>
       <c r="L51" s="48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9832,10 +9893,10 @@
       </c>
       <c r="B52" s="62"/>
       <c r="C52" s="63" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D52" s="53" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E52" s="64"/>
       <c r="F52" s="61" t="n">
@@ -9850,7 +9911,7 @@
       </c>
       <c r="K52" s="62"/>
       <c r="L52" s="48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9859,10 +9920,10 @@
       </c>
       <c r="B53" s="62"/>
       <c r="C53" s="65" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D53" s="53" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E53" s="64"/>
       <c r="F53" s="61" t="n">
@@ -9876,10 +9937,10 @@
         <v>30700000</v>
       </c>
       <c r="K53" s="53" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L53" s="48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9888,10 +9949,10 @@
       </c>
       <c r="B54" s="62"/>
       <c r="C54" s="63" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D54" s="53" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E54" s="64"/>
       <c r="F54" s="61" t="n">
@@ -9906,7 +9967,7 @@
       </c>
       <c r="K54" s="62"/>
       <c r="L54" s="48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9915,10 +9976,10 @@
         <v>44507</v>
       </c>
       <c r="C55" s="67" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D55" s="68" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E55" s="61" t="n">
         <v>100000</v>
@@ -9930,7 +9991,7 @@
       <c r="J55" s="62"/>
       <c r="K55" s="62"/>
       <c r="L55" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9939,10 +10000,10 @@
         <v>44520</v>
       </c>
       <c r="C56" s="67" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D56" s="68" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E56" s="61" t="n">
         <v>100000</v>
@@ -9954,7 +10015,7 @@
       <c r="J56" s="62"/>
       <c r="K56" s="62"/>
       <c r="L56" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9963,10 +10024,10 @@
         <v>44527</v>
       </c>
       <c r="C57" s="67" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D57" s="68" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E57" s="61" t="n">
         <v>100000</v>
@@ -9978,7 +10039,7 @@
       <c r="J57" s="62"/>
       <c r="K57" s="62"/>
       <c r="L57" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9987,10 +10048,10 @@
         <v>44233</v>
       </c>
       <c r="C58" s="67" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D58" s="68" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E58" s="61" t="n">
         <v>200000</v>
@@ -10002,7 +10063,7 @@
       <c r="J58" s="62"/>
       <c r="K58" s="62"/>
       <c r="L58" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10011,10 +10072,10 @@
         <v>44507</v>
       </c>
       <c r="C59" s="67" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D59" s="68" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E59" s="61" t="n">
         <v>100000</v>
@@ -10026,7 +10087,7 @@
       <c r="J59" s="62"/>
       <c r="K59" s="62"/>
       <c r="L59" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10035,10 +10096,10 @@
         <v>44507</v>
       </c>
       <c r="C60" s="67" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D60" s="68" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E60" s="61" t="n">
         <v>100000</v>
@@ -10050,7 +10111,7 @@
       <c r="J60" s="62"/>
       <c r="K60" s="62"/>
       <c r="L60" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10059,10 +10120,10 @@
         <v>44677</v>
       </c>
       <c r="C61" s="67" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D61" s="68" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E61" s="61" t="n">
         <v>200000</v>
@@ -10074,7 +10135,7 @@
       <c r="J61" s="62"/>
       <c r="K61" s="62"/>
       <c r="L61" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10083,10 +10144,10 @@
         <v>44507</v>
       </c>
       <c r="C62" s="67" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D62" s="68" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E62" s="61" t="n">
         <v>100000</v>
@@ -10098,7 +10159,7 @@
       <c r="J62" s="62"/>
       <c r="K62" s="62"/>
       <c r="L62" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10107,10 +10168,10 @@
         <v>44527</v>
       </c>
       <c r="C63" s="67" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D63" s="68" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E63" s="61" t="n">
         <v>100000</v>
@@ -10122,7 +10183,7 @@
       <c r="J63" s="62"/>
       <c r="K63" s="62"/>
       <c r="L63" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10131,10 +10192,10 @@
         <v>44507</v>
       </c>
       <c r="C64" s="67" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D64" s="68" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E64" s="61" t="n">
         <v>100000</v>
@@ -10146,7 +10207,7 @@
       <c r="J64" s="62"/>
       <c r="K64" s="62"/>
       <c r="L64" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10155,10 +10216,10 @@
         <v>44582</v>
       </c>
       <c r="C65" s="67" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D65" s="68" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E65" s="61" t="n">
         <v>100000</v>
@@ -10170,7 +10231,7 @@
       <c r="J65" s="62"/>
       <c r="K65" s="62"/>
       <c r="L65" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10179,10 +10240,10 @@
         <v>44582</v>
       </c>
       <c r="C66" s="67" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D66" s="68" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E66" s="61" t="n">
         <v>100000</v>
@@ -10194,7 +10255,7 @@
       <c r="J66" s="62"/>
       <c r="K66" s="62"/>
       <c r="L66" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10203,10 +10264,10 @@
         <v>44527</v>
       </c>
       <c r="C67" s="67" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D67" s="68" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E67" s="61" t="n">
         <v>100000</v>
@@ -10218,7 +10279,7 @@
       <c r="J67" s="62"/>
       <c r="K67" s="62"/>
       <c r="L67" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10227,10 +10288,10 @@
         <v>44527</v>
       </c>
       <c r="C68" s="67" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D68" s="68" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E68" s="61" t="n">
         <v>100000</v>
@@ -10242,7 +10303,7 @@
       <c r="J68" s="62"/>
       <c r="K68" s="62"/>
       <c r="L68" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10251,10 +10312,10 @@
         <v>44710</v>
       </c>
       <c r="C69" s="67" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D69" s="68" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E69" s="61" t="n">
         <v>100000</v>
@@ -10266,7 +10327,7 @@
       <c r="J69" s="62"/>
       <c r="K69" s="62"/>
       <c r="L69" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10275,10 +10336,10 @@
         <v>44583</v>
       </c>
       <c r="C70" s="69" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D70" s="68" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="E70" s="61" t="n">
         <v>100000</v>
@@ -10290,7 +10351,7 @@
       <c r="J70" s="62"/>
       <c r="K70" s="62"/>
       <c r="L70" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10299,10 +10360,10 @@
         <v>44630</v>
       </c>
       <c r="C71" s="69" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D71" s="68" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="E71" s="61" t="n">
         <v>100000</v>
@@ -10314,7 +10375,7 @@
       <c r="J71" s="62"/>
       <c r="K71" s="62"/>
       <c r="L71" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10323,10 +10384,10 @@
         <v>44696</v>
       </c>
       <c r="C72" s="69" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D72" s="68" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="E72" s="61" t="n">
         <v>100000</v>
@@ -10338,7 +10399,7 @@
       <c r="J72" s="62"/>
       <c r="K72" s="62"/>
       <c r="L72" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10347,10 +10408,10 @@
         <v>44710</v>
       </c>
       <c r="C73" s="67" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D73" s="68" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E73" s="61" t="n">
         <v>100000</v>
@@ -10362,7 +10423,7 @@
       <c r="J73" s="62"/>
       <c r="K73" s="62"/>
       <c r="L73" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10371,10 +10432,10 @@
         <v>44597</v>
       </c>
       <c r="C74" s="67" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D74" s="68" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E74" s="61" t="n">
         <v>200000</v>
@@ -10386,7 +10447,7 @@
       <c r="J74" s="62"/>
       <c r="K74" s="62"/>
       <c r="L74" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10395,10 +10456,10 @@
         <v>44512</v>
       </c>
       <c r="C75" s="67" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D75" s="68" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E75" s="61" t="n">
         <v>100000</v>
@@ -10410,7 +10471,7 @@
       <c r="J75" s="62"/>
       <c r="K75" s="62"/>
       <c r="L75" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10419,10 +10480,10 @@
         <v>44528</v>
       </c>
       <c r="C76" s="67" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D76" s="68" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E76" s="61" t="n">
         <v>100000</v>
@@ -10434,7 +10495,7 @@
       <c r="J76" s="62"/>
       <c r="K76" s="62"/>
       <c r="L76" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10443,10 +10504,10 @@
         <v>44555</v>
       </c>
       <c r="C77" s="67" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D77" s="68" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E77" s="61" t="n">
         <v>200000</v>
@@ -10458,7 +10519,7 @@
       <c r="J77" s="62"/>
       <c r="K77" s="62"/>
       <c r="L77" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10467,10 +10528,10 @@
         <v>44680</v>
       </c>
       <c r="C78" s="67" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D78" s="68" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E78" s="61" t="n">
         <v>150000</v>
@@ -10482,7 +10543,7 @@
       <c r="J78" s="62"/>
       <c r="K78" s="62"/>
       <c r="L78" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10491,10 +10552,10 @@
         <v>44507</v>
       </c>
       <c r="C79" s="67" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D79" s="68" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E79" s="61" t="n">
         <v>100000</v>
@@ -10506,7 +10567,7 @@
       <c r="J79" s="62"/>
       <c r="K79" s="62"/>
       <c r="L79" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10515,10 +10576,10 @@
         <v>44507</v>
       </c>
       <c r="C80" s="67" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D80" s="68" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E80" s="61" t="n">
         <v>100000</v>
@@ -10530,7 +10591,7 @@
       <c r="J80" s="62"/>
       <c r="K80" s="62"/>
       <c r="L80" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10539,10 +10600,10 @@
         <v>44577</v>
       </c>
       <c r="C81" s="67" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D81" s="68" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E81" s="61" t="n">
         <v>100000</v>
@@ -10554,7 +10615,7 @@
       <c r="J81" s="62"/>
       <c r="K81" s="62"/>
       <c r="L81" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10563,10 +10624,10 @@
         <v>44630</v>
       </c>
       <c r="C82" s="67" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D82" s="68" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E82" s="61" t="n">
         <v>100000</v>
@@ -10578,7 +10639,7 @@
       <c r="J82" s="62"/>
       <c r="K82" s="62"/>
       <c r="L82" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10587,10 +10648,10 @@
         <v>44620</v>
       </c>
       <c r="C83" s="67" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D83" s="68" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E83" s="61" t="n">
         <v>100000</v>
@@ -10602,7 +10663,7 @@
       <c r="J83" s="62"/>
       <c r="K83" s="62"/>
       <c r="L83" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10611,10 +10672,10 @@
         <v>44681</v>
       </c>
       <c r="C84" s="67" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D84" s="68" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E84" s="61" t="n">
         <v>100000</v>
@@ -10626,7 +10687,7 @@
       <c r="J84" s="62"/>
       <c r="K84" s="62"/>
       <c r="L84" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10635,10 +10696,10 @@
         <v>44507</v>
       </c>
       <c r="C85" s="67" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D85" s="68" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E85" s="61" t="n">
         <v>100000</v>
@@ -10650,7 +10711,7 @@
       <c r="J85" s="62"/>
       <c r="K85" s="62"/>
       <c r="L85" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10659,10 +10720,10 @@
         <v>44507</v>
       </c>
       <c r="C86" s="67" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D86" s="68" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E86" s="61" t="n">
         <v>100000</v>
@@ -10674,7 +10735,7 @@
       <c r="J86" s="62"/>
       <c r="K86" s="62"/>
       <c r="L86" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10683,10 +10744,10 @@
         <v>44596</v>
       </c>
       <c r="C87" s="67" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D87" s="68" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E87" s="61" t="n">
         <v>200000</v>
@@ -10698,7 +10759,7 @@
       <c r="J87" s="62"/>
       <c r="K87" s="62"/>
       <c r="L87" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10707,10 +10768,10 @@
         <v>44506</v>
       </c>
       <c r="C88" s="67" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D88" s="68" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E88" s="61" t="n">
         <v>100000</v>
@@ -10722,7 +10783,7 @@
       <c r="J88" s="62"/>
       <c r="K88" s="62"/>
       <c r="L88" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10731,10 +10792,10 @@
         <v>44533</v>
       </c>
       <c r="C89" s="67" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D89" s="68" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E89" s="61" t="n">
         <v>100000</v>
@@ -10746,7 +10807,7 @@
       <c r="J89" s="62"/>
       <c r="K89" s="62"/>
       <c r="L89" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10755,10 +10816,10 @@
         <v>44598</v>
       </c>
       <c r="C90" s="67" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D90" s="68" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E90" s="61" t="n">
         <v>200000</v>
@@ -10770,7 +10831,7 @@
       <c r="J90" s="62"/>
       <c r="K90" s="62"/>
       <c r="L90" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10779,10 +10840,10 @@
         <v>44598</v>
       </c>
       <c r="C91" s="67" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D91" s="68" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E91" s="61" t="n">
         <v>200000</v>
@@ -10794,7 +10855,7 @@
       <c r="J91" s="62"/>
       <c r="K91" s="62"/>
       <c r="L91" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10803,10 +10864,10 @@
         <v>44507</v>
       </c>
       <c r="C92" s="67" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D92" s="68" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E92" s="61" t="n">
         <v>100000</v>
@@ -10818,7 +10879,7 @@
       <c r="J92" s="62"/>
       <c r="K92" s="62"/>
       <c r="L92" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10827,10 +10888,10 @@
         <v>44507</v>
       </c>
       <c r="C93" s="67" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D93" s="68" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E93" s="61" t="n">
         <v>100000</v>
@@ -10842,7 +10903,7 @@
       <c r="J93" s="62"/>
       <c r="K93" s="62"/>
       <c r="L93" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10851,10 +10912,10 @@
         <v>44565</v>
       </c>
       <c r="C94" s="67" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D94" s="68" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E94" s="61" t="n">
         <v>100000</v>
@@ -10866,7 +10927,7 @@
       <c r="J94" s="62"/>
       <c r="K94" s="62"/>
       <c r="L94" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10875,10 +10936,10 @@
         <v>44604</v>
       </c>
       <c r="C95" s="67" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D95" s="68" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E95" s="61" t="n">
         <v>100000</v>
@@ -10890,7 +10951,7 @@
       <c r="J95" s="62"/>
       <c r="K95" s="62"/>
       <c r="L95" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10899,10 +10960,10 @@
         <v>44633</v>
       </c>
       <c r="C96" s="67" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D96" s="68" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E96" s="61" t="n">
         <v>100000</v>
@@ -10914,7 +10975,7 @@
       <c r="J96" s="62"/>
       <c r="K96" s="62"/>
       <c r="L96" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10923,10 +10984,10 @@
         <v>44697</v>
       </c>
       <c r="C97" s="67" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D97" s="68" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E97" s="61" t="n">
         <v>200000</v>
@@ -10938,7 +10999,7 @@
       <c r="J97" s="62"/>
       <c r="K97" s="62"/>
       <c r="L97" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10947,10 +11008,10 @@
         <v>44518</v>
       </c>
       <c r="C98" s="67" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D98" s="68" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E98" s="61" t="n">
         <v>100000</v>
@@ -10962,7 +11023,7 @@
       <c r="J98" s="62"/>
       <c r="K98" s="62"/>
       <c r="L98" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10971,10 +11032,10 @@
         <v>44518</v>
       </c>
       <c r="C99" s="67" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D99" s="68" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E99" s="61" t="n">
         <v>100000</v>
@@ -10986,7 +11047,7 @@
       <c r="J99" s="62"/>
       <c r="K99" s="62"/>
       <c r="L99" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10995,10 +11056,10 @@
         <v>44620</v>
       </c>
       <c r="C100" s="67" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D100" s="68" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E100" s="61" t="n">
         <v>100000</v>
@@ -11010,7 +11071,7 @@
       <c r="J100" s="62"/>
       <c r="K100" s="62"/>
       <c r="L100" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11019,10 +11080,10 @@
         <v>44512</v>
       </c>
       <c r="C101" s="67" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D101" s="68" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E101" s="61" t="n">
         <v>100000</v>
@@ -11034,7 +11095,7 @@
       <c r="J101" s="62"/>
       <c r="K101" s="62"/>
       <c r="L101" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11043,10 +11104,10 @@
         <v>44506</v>
       </c>
       <c r="C102" s="67" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D102" s="68" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E102" s="61" t="n">
         <v>100000</v>
@@ -11058,7 +11119,7 @@
       <c r="J102" s="62"/>
       <c r="K102" s="62"/>
       <c r="L102" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11067,10 +11128,10 @@
         <v>44555</v>
       </c>
       <c r="C103" s="67" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D103" s="68" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E103" s="61" t="n">
         <v>100000</v>
@@ -11082,7 +11143,7 @@
       <c r="J103" s="62"/>
       <c r="K103" s="62"/>
       <c r="L103" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11091,10 +11152,10 @@
         <v>44218</v>
       </c>
       <c r="C104" s="67" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D104" s="68" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E104" s="61" t="n">
         <v>200000</v>
@@ -11106,7 +11167,7 @@
       <c r="J104" s="62"/>
       <c r="K104" s="62"/>
       <c r="L104" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11115,10 +11176,10 @@
         <v>44507</v>
       </c>
       <c r="C105" s="67" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D105" s="68" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E105" s="61" t="n">
         <v>100000</v>
@@ -11130,7 +11191,7 @@
       <c r="J105" s="62"/>
       <c r="K105" s="62"/>
       <c r="L105" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11138,17 +11199,17 @@
         <v>44559</v>
       </c>
       <c r="C106" s="67" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D106" s="68" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E106" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F106" s="61"/>
       <c r="L106" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11156,17 +11217,17 @@
         <v>44558</v>
       </c>
       <c r="C107" s="67" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D107" s="68" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E107" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F107" s="61"/>
       <c r="L107" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11174,17 +11235,17 @@
         <v>44302</v>
       </c>
       <c r="C108" s="67" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D108" s="68" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E108" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F108" s="61"/>
       <c r="L108" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11192,17 +11253,17 @@
         <v>44695</v>
       </c>
       <c r="C109" s="67" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D109" s="68" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E109" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F109" s="61"/>
       <c r="L109" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11210,17 +11271,17 @@
         <v>44694</v>
       </c>
       <c r="C110" s="67" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D110" s="68" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E110" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F110" s="61"/>
       <c r="L110" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11228,17 +11289,17 @@
         <v>44507</v>
       </c>
       <c r="C111" s="67" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D111" s="68" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E111" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F111" s="61"/>
       <c r="L111" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11246,17 +11307,17 @@
         <v>44573</v>
       </c>
       <c r="C112" s="67" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D112" s="68" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E112" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F112" s="61"/>
       <c r="L112" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11264,17 +11325,17 @@
         <v>44633</v>
       </c>
       <c r="C113" s="67" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D113" s="68" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E113" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F113" s="61"/>
       <c r="L113" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11282,17 +11343,17 @@
         <v>44507</v>
       </c>
       <c r="C114" s="67" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D114" s="68" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E114" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F114" s="61"/>
       <c r="L114" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11300,17 +11361,17 @@
         <v>44554</v>
       </c>
       <c r="C115" s="67" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D115" s="68" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E115" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F115" s="61"/>
       <c r="L115" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11318,17 +11379,17 @@
         <v>44604</v>
       </c>
       <c r="C116" s="67" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D116" s="68" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E116" s="61" t="n">
         <v>200000</v>
       </c>
       <c r="F116" s="61"/>
       <c r="L116" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11336,17 +11397,17 @@
         <v>44563</v>
       </c>
       <c r="C117" s="67" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D117" s="68" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E117" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F117" s="61"/>
       <c r="L117" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11354,17 +11415,17 @@
         <v>44680</v>
       </c>
       <c r="C118" s="67" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D118" s="68" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E118" s="61" t="n">
         <v>150000</v>
       </c>
       <c r="F118" s="61"/>
       <c r="L118" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11372,17 +11433,17 @@
         <v>44684</v>
       </c>
       <c r="C119" s="67" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D119" s="68" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E119" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F119" s="61"/>
       <c r="L119" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11390,17 +11451,17 @@
         <v>44598</v>
       </c>
       <c r="C120" s="67" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D120" s="68" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E120" s="61" t="n">
         <v>200000</v>
       </c>
       <c r="F120" s="61"/>
       <c r="L120" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11408,17 +11469,17 @@
         <v>44527</v>
       </c>
       <c r="C121" s="67" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D121" s="68" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E121" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F121" s="61"/>
       <c r="L121" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11426,17 +11487,17 @@
         <v>44710</v>
       </c>
       <c r="C122" s="67" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D122" s="68" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E122" s="61" t="n">
         <v>200000</v>
       </c>
       <c r="F122" s="61"/>
       <c r="L122" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11444,17 +11505,17 @@
         <v>44507</v>
       </c>
       <c r="C123" s="67" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D123" s="68" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E123" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F123" s="61"/>
       <c r="L123" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11462,17 +11523,17 @@
         <v>44507</v>
       </c>
       <c r="C124" s="67" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D124" s="68" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E124" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F124" s="61"/>
       <c r="L124" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11480,17 +11541,17 @@
         <v>44507</v>
       </c>
       <c r="C125" s="67" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D125" s="68" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E125" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F125" s="61"/>
       <c r="L125" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11498,17 +11559,17 @@
         <v>44630</v>
       </c>
       <c r="C126" s="67" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D126" s="68" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="E126" s="61" t="n">
         <v>200000</v>
       </c>
       <c r="F126" s="61"/>
       <c r="L126" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11516,17 +11577,17 @@
         <v>44710</v>
       </c>
       <c r="C127" s="67" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D127" s="68" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E127" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F127" s="61"/>
       <c r="L127" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11534,17 +11595,17 @@
         <v>44518</v>
       </c>
       <c r="C128" s="67" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D128" s="68" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E128" s="61" t="n">
         <v>50000</v>
       </c>
       <c r="F128" s="61"/>
       <c r="L128" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11552,17 +11613,17 @@
         <v>44518</v>
       </c>
       <c r="C129" s="67" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D129" s="68" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E129" s="61" t="n">
         <v>50000</v>
       </c>
       <c r="F129" s="61"/>
       <c r="L129" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11570,17 +11631,17 @@
         <v>44507</v>
       </c>
       <c r="C130" s="67" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D130" s="68" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E130" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F130" s="61"/>
       <c r="L130" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11588,17 +11649,17 @@
         <v>44507</v>
       </c>
       <c r="C131" s="67" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D131" s="68" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E131" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F131" s="61"/>
       <c r="L131" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11606,17 +11667,17 @@
         <v>44564</v>
       </c>
       <c r="C132" s="67" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D132" s="68" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E132" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F132" s="61"/>
       <c r="L132" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11624,17 +11685,17 @@
         <v>44593</v>
       </c>
       <c r="C133" s="67" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D133" s="68" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E133" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F133" s="61"/>
       <c r="L133" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11642,17 +11703,17 @@
         <v>44639</v>
       </c>
       <c r="C134" s="67" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D134" s="68" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E134" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F134" s="61"/>
       <c r="L134" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11660,17 +11721,17 @@
         <v>44598</v>
       </c>
       <c r="C135" s="67" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D135" s="68" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E135" s="61" t="n">
         <v>200000</v>
       </c>
       <c r="F135" s="61"/>
       <c r="L135" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11678,17 +11739,17 @@
         <v>44653</v>
       </c>
       <c r="C136" s="67" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D136" s="68" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E136" s="61" t="n">
         <v>1000000</v>
       </c>
       <c r="F136" s="61"/>
       <c r="L136" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11696,17 +11757,17 @@
         <v>44623</v>
       </c>
       <c r="C137" s="67" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D137" s="68" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E137" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F137" s="61"/>
       <c r="L137" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11714,17 +11775,17 @@
         <v>44695</v>
       </c>
       <c r="C138" s="67" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D138" s="68" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E138" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F138" s="61"/>
       <c r="L138" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11732,17 +11793,17 @@
         <v>44507</v>
       </c>
       <c r="C139" s="67" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D139" s="68" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E139" s="61" t="n">
         <v>100000</v>
       </c>
       <c r="F139" s="61"/>
       <c r="L139" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13772,14 +13833,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:I267"/>
+  <dimension ref="B1:I268"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="E163" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
+      <selection pane="bottomRight" activeCell="F166" activeCellId="0" sqref="F166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13799,7 +13860,7 @@
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="72" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C2" s="72"/>
       <c r="D2" s="72"/>
@@ -13811,7 +13872,7 @@
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="72" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C3" s="72"/>
       <c r="D3" s="72"/>
@@ -13823,7 +13884,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="73" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C4" s="73"/>
       <c r="D4" s="73"/>
@@ -13843,19 +13904,19 @@
         <v>5</v>
       </c>
       <c r="D6" s="74" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E6" s="74" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="74" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G6" s="75" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="H6" s="74" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="I6" s="62" t="s">
         <v>11</v>
@@ -13864,10 +13925,10 @@
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="76"/>
       <c r="C7" s="74" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D7" s="74" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E7" s="76" t="n">
         <v>1</v>
@@ -13882,10 +13943,10 @@
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="76"/>
       <c r="C8" s="74" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D8" s="74" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E8" s="76" t="n">
         <v>2</v>
@@ -13900,10 +13961,10 @@
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="76"/>
       <c r="C9" s="74" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D9" s="74" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E9" s="76" t="n">
         <v>3</v>
@@ -13918,10 +13979,10 @@
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="76"/>
       <c r="C10" s="74" t="s">
+        <v>370</v>
+      </c>
+      <c r="D10" s="74" t="s">
         <v>367</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>364</v>
       </c>
       <c r="E10" s="12" t="n">
         <v>6</v>
@@ -13935,32 +13996,32 @@
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="76"/>
       <c r="C11" s="74" t="s">
+        <v>370</v>
+      </c>
+      <c r="D11" s="74" t="s">
         <v>367</v>
-      </c>
-      <c r="D11" s="74" t="s">
-        <v>364</v>
       </c>
       <c r="E11" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F11" s="77" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="G11" s="75" t="n">
         <v>500000</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="78" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="76"/>
       <c r="C12" s="74" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D12" s="74" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E12" s="76" t="n">
         <v>8</v>
@@ -13975,10 +14036,10 @@
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="76"/>
       <c r="C13" s="74" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D13" s="74" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E13" s="76" t="n">
         <v>10</v>
@@ -13993,32 +14054,32 @@
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="76"/>
       <c r="C14" s="74" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D14" s="74" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E14" s="76" t="n">
         <v>10</v>
       </c>
       <c r="F14" s="77" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="G14" s="75" t="n">
         <v>500000</v>
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="78" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="76"/>
       <c r="C15" s="74" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D15" s="74" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E15" s="76" t="n">
         <v>11</v>
@@ -14033,10 +14094,10 @@
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="76"/>
       <c r="C16" s="74" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D16" s="74" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E16" s="76" t="n">
         <v>12</v>
@@ -14051,10 +14112,10 @@
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="76"/>
       <c r="C17" s="74" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D17" s="74" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E17" s="76" t="n">
         <v>15</v>
@@ -14069,10 +14130,10 @@
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="76"/>
       <c r="C18" s="74" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D18" s="74" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E18" s="76" t="n">
         <v>16</v>
@@ -14087,10 +14148,10 @@
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="76"/>
       <c r="C19" s="74" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D19" s="74" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E19" s="76" t="n">
         <v>17</v>
@@ -14105,10 +14166,10 @@
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="76"/>
       <c r="C20" s="74" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D20" s="74" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E20" s="76" t="n">
         <v>20</v>
@@ -14123,10 +14184,10 @@
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="76"/>
       <c r="C21" s="74" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D21" s="74" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E21" s="76" t="n">
         <v>21</v>
@@ -14141,10 +14202,10 @@
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="76"/>
       <c r="C22" s="74" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D22" s="74" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E22" s="76" t="n">
         <v>24</v>
@@ -14159,10 +14220,10 @@
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="76"/>
       <c r="C23" s="74" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D23" s="74" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E23" s="76" t="n">
         <v>26</v>
@@ -14177,10 +14238,10 @@
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="76"/>
       <c r="C24" s="74" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D24" s="74" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E24" s="76" t="n">
         <v>1</v>
@@ -14195,10 +14256,10 @@
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="76"/>
       <c r="C25" s="74" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D25" s="74" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E25" s="76" t="n">
         <v>2</v>
@@ -14213,10 +14274,10 @@
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="76"/>
       <c r="C26" s="74" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D26" s="74" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E26" s="76" t="n">
         <v>3</v>
@@ -14231,10 +14292,10 @@
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="76"/>
       <c r="C27" s="74" t="s">
+        <v>388</v>
+      </c>
+      <c r="D27" s="74" t="s">
         <v>385</v>
-      </c>
-      <c r="D27" s="74" t="s">
-        <v>382</v>
       </c>
       <c r="E27" s="76" t="n">
         <v>5</v>
@@ -14249,10 +14310,10 @@
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="76"/>
       <c r="C28" s="74" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D28" s="74" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E28" s="76" t="n">
         <v>6</v>
@@ -14267,10 +14328,10 @@
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="76"/>
       <c r="C29" s="74" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D29" s="74" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E29" s="76" t="n">
         <v>7</v>
@@ -14285,10 +14346,10 @@
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="76"/>
       <c r="C30" s="74" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D30" s="74" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E30" s="76" t="n">
         <v>8</v>
@@ -14303,10 +14364,10 @@
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="76"/>
       <c r="C31" s="74" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D31" s="74" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E31" s="76" t="n">
         <v>9</v>
@@ -14321,10 +14382,10 @@
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="76"/>
       <c r="C32" s="74" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D32" s="74" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E32" s="76" t="n">
         <v>10</v>
@@ -14339,10 +14400,10 @@
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="76"/>
       <c r="C33" s="74" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D33" s="74" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E33" s="76" t="n">
         <v>11</v>
@@ -14357,10 +14418,10 @@
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="76"/>
       <c r="C34" s="74" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D34" s="74" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E34" s="76" t="n">
         <v>12</v>
@@ -14375,10 +14436,10 @@
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="76"/>
       <c r="C35" s="74" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D35" s="74" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E35" s="76" t="n">
         <v>16</v>
@@ -14393,10 +14454,10 @@
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="76"/>
       <c r="C36" s="74" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D36" s="74" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E36" s="76" t="n">
         <v>1</v>
@@ -14411,10 +14472,10 @@
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="76"/>
       <c r="C37" s="74" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D37" s="74" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E37" s="76" t="n">
         <v>3</v>
@@ -14429,10 +14490,10 @@
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="76"/>
       <c r="C38" s="74" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D38" s="74" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E38" s="76" t="n">
         <v>5</v>
@@ -14447,10 +14508,10 @@
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="76"/>
       <c r="C39" s="74" t="s">
+        <v>401</v>
+      </c>
+      <c r="D39" s="74" t="s">
         <v>398</v>
-      </c>
-      <c r="D39" s="74" t="s">
-        <v>395</v>
       </c>
       <c r="E39" s="76" t="n">
         <v>6</v>
@@ -14465,10 +14526,10 @@
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="76"/>
       <c r="C40" s="74" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D40" s="74" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E40" s="76" t="n">
         <v>7</v>
@@ -14483,10 +14544,10 @@
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="76"/>
       <c r="C41" s="74" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D41" s="74" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E41" s="76" t="n">
         <v>8</v>
@@ -14501,10 +14562,10 @@
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="76"/>
       <c r="C42" s="74" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D42" s="74" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E42" s="76" t="n">
         <v>9</v>
@@ -14519,10 +14580,10 @@
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="76"/>
       <c r="C43" s="74" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D43" s="74" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E43" s="76" t="n">
         <v>10</v>
@@ -14537,10 +14598,10 @@
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="76"/>
       <c r="C44" s="74" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D44" s="74" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E44" s="76" t="n">
         <v>12</v>
@@ -14555,10 +14616,10 @@
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="76"/>
       <c r="C45" s="74" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D45" s="74" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E45" s="76" t="n">
         <v>15</v>
@@ -14573,10 +14634,10 @@
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="76"/>
       <c r="C46" s="74" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D46" s="74" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E46" s="76" t="n">
         <v>16</v>
@@ -14591,10 +14652,10 @@
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="76"/>
       <c r="C47" s="74" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D47" s="74" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E47" s="76" t="n">
         <v>17</v>
@@ -14609,10 +14670,10 @@
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="76"/>
       <c r="C48" s="74" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D48" s="74" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E48" s="76" t="n">
         <v>18</v>
@@ -14627,10 +14688,10 @@
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="76"/>
       <c r="C49" s="74" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D49" s="74" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E49" s="76" t="n">
         <v>1</v>
@@ -14645,10 +14706,10 @@
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="76"/>
       <c r="C50" s="74" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="D50" s="74" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E50" s="76" t="n">
         <v>2</v>
@@ -14663,10 +14724,10 @@
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="76"/>
       <c r="C51" s="74" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D51" s="74" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E51" s="76" t="n">
         <v>3</v>
@@ -14681,10 +14742,10 @@
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="76"/>
       <c r="C52" s="74" t="s">
+        <v>415</v>
+      </c>
+      <c r="D52" s="74" t="s">
         <v>412</v>
-      </c>
-      <c r="D52" s="74" t="s">
-        <v>409</v>
       </c>
       <c r="E52" s="76" t="n">
         <v>5</v>
@@ -14699,10 +14760,10 @@
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="76"/>
       <c r="C53" s="74" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D53" s="74" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E53" s="76" t="n">
         <v>7</v>
@@ -14717,10 +14778,10 @@
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="76"/>
       <c r="C54" s="74" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D54" s="74" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E54" s="76" t="n">
         <v>8</v>
@@ -14734,10 +14795,10 @@
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="76"/>
       <c r="C55" s="74" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D55" s="74" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E55" s="76" t="n">
         <v>9</v>
@@ -14752,10 +14813,10 @@
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="76"/>
       <c r="C56" s="74" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D56" s="74" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E56" s="76" t="n">
         <v>10</v>
@@ -14770,10 +14831,10 @@
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="76"/>
       <c r="C57" s="74" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D57" s="74" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E57" s="76" t="n">
         <v>11</v>
@@ -14788,10 +14849,10 @@
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="76"/>
       <c r="C58" s="74" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="D58" s="74" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E58" s="76" t="n">
         <v>12</v>
@@ -14806,10 +14867,10 @@
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="76"/>
       <c r="C59" s="74" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D59" s="74" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E59" s="76" t="n">
         <v>15</v>
@@ -14824,10 +14885,10 @@
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="76"/>
       <c r="C60" s="74" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="D60" s="74" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E60" s="76" t="n">
         <v>16</v>
@@ -14842,10 +14903,10 @@
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="76"/>
       <c r="C61" s="74" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D61" s="74" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E61" s="76" t="n">
         <v>17</v>
@@ -14860,10 +14921,10 @@
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="76"/>
       <c r="C62" s="74" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="D62" s="74" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="E62" s="76" t="n">
         <v>12</v>
@@ -14878,10 +14939,10 @@
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="76"/>
       <c r="C63" s="74" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D63" s="74" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="E63" s="76" t="n">
         <v>15</v>
@@ -14896,10 +14957,10 @@
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="76"/>
       <c r="C64" s="74" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="D64" s="74" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="E64" s="76" t="n">
         <v>1</v>
@@ -14914,10 +14975,10 @@
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="76"/>
       <c r="C65" s="74" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D65" s="74" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="E65" s="76" t="n">
         <v>2</v>
@@ -14932,10 +14993,10 @@
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="76"/>
       <c r="C66" s="74" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="D66" s="74" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="E66" s="76" t="n">
         <v>26</v>
@@ -14950,10 +15011,10 @@
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="76"/>
       <c r="C67" s="74" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="D67" s="74" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E67" s="76" t="n">
         <v>1</v>
@@ -14968,10 +15029,10 @@
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="76"/>
       <c r="C68" s="74" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D68" s="74" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E68" s="76" t="n">
         <v>2</v>
@@ -14986,10 +15047,10 @@
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="76"/>
       <c r="C69" s="74" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D69" s="74" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E69" s="76" t="n">
         <v>5</v>
@@ -15004,10 +15065,10 @@
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="76"/>
       <c r="C70" s="74" t="s">
+        <v>436</v>
+      </c>
+      <c r="D70" s="74" t="s">
         <v>433</v>
-      </c>
-      <c r="D70" s="74" t="s">
-        <v>430</v>
       </c>
       <c r="E70" s="76" t="n">
         <v>6</v>
@@ -15022,10 +15083,10 @@
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="76"/>
       <c r="C71" s="74" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D71" s="74" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E71" s="76" t="n">
         <v>7</v>
@@ -15040,35 +15101,35 @@
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="76"/>
       <c r="C72" s="74" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D72" s="74" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E72" s="76" t="n">
         <v>7</v>
       </c>
       <c r="F72" s="77" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="G72" s="75" t="n">
         <v>500000</v>
       </c>
       <c r="H72" s="10"/>
       <c r="I72" s="78" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="76"/>
       <c r="C73" s="74" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="D73" s="74" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E73" s="74" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="F73" s="77"/>
       <c r="G73" s="75" t="n">
@@ -15080,13 +15141,13 @@
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="76"/>
       <c r="C74" s="74" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="D74" s="74" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E74" s="74" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="F74" s="77" t="n">
         <v>45051</v>
@@ -15096,16 +15157,16 @@
       </c>
       <c r="H74" s="10"/>
       <c r="I74" s="78" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="76"/>
       <c r="C75" s="74" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D75" s="74" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E75" s="76" t="n">
         <v>10</v>
@@ -15120,10 +15181,10 @@
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="76"/>
       <c r="C76" s="74" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D76" s="74" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E76" s="76" t="n">
         <v>11</v>
@@ -15138,10 +15199,10 @@
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="76"/>
       <c r="C77" s="74" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D77" s="74" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E77" s="76" t="n">
         <v>12</v>
@@ -15156,10 +15217,10 @@
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="76"/>
       <c r="C78" s="74" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D78" s="74" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E78" s="76" t="n">
         <v>15</v>
@@ -15174,10 +15235,10 @@
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="76"/>
       <c r="C79" s="74" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D79" s="74" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E79" s="76" t="n">
         <v>16</v>
@@ -15192,10 +15253,10 @@
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="76"/>
       <c r="C80" s="74" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D80" s="74" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E80" s="76" t="n">
         <v>17</v>
@@ -15210,10 +15271,10 @@
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="76"/>
       <c r="C81" s="74" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D81" s="74" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E81" s="76" t="n">
         <v>18</v>
@@ -15228,13 +15289,13 @@
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="76"/>
       <c r="C82" s="74" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D82" s="74" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E82" s="74" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="F82" s="77"/>
       <c r="G82" s="75" t="n">
@@ -15246,10 +15307,10 @@
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="76"/>
       <c r="C83" s="74" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D83" s="74" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E83" s="76" t="n">
         <v>22</v>
@@ -15264,10 +15325,10 @@
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="76"/>
       <c r="C84" s="74" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D84" s="74" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E84" s="76" t="n">
         <v>23</v>
@@ -15282,10 +15343,10 @@
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="76"/>
       <c r="C85" s="74" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D85" s="74" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E85" s="76" t="n">
         <v>24</v>
@@ -15300,10 +15361,10 @@
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="76"/>
       <c r="C86" s="74" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="D86" s="74" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E86" s="76" t="n">
         <v>25</v>
@@ -15318,10 +15379,10 @@
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="76"/>
       <c r="C87" s="74" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D87" s="74" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E87" s="76" t="n">
         <v>1</v>
@@ -15336,10 +15397,10 @@
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="76"/>
       <c r="C88" s="74" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D88" s="74" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E88" s="76" t="n">
         <v>2</v>
@@ -15354,10 +15415,10 @@
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="76"/>
       <c r="C89" s="74" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D89" s="74" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E89" s="76" t="n">
         <v>5</v>
@@ -15372,10 +15433,10 @@
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="76"/>
       <c r="C90" s="74" t="s">
+        <v>459</v>
+      </c>
+      <c r="D90" s="74" t="s">
         <v>456</v>
-      </c>
-      <c r="D90" s="74" t="s">
-        <v>453</v>
       </c>
       <c r="E90" s="76" t="n">
         <v>6</v>
@@ -15390,10 +15451,10 @@
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="76"/>
       <c r="C91" s="74" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D91" s="74" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E91" s="76" t="n">
         <v>7</v>
@@ -15408,10 +15469,10 @@
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="76"/>
       <c r="C92" s="74" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="D92" s="74" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E92" s="76" t="n">
         <v>8</v>
@@ -15426,10 +15487,10 @@
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="76"/>
       <c r="C93" s="74" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D93" s="74" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E93" s="76" t="n">
         <v>9</v>
@@ -15444,10 +15505,10 @@
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="76"/>
       <c r="C94" s="74" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D94" s="74" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E94" s="76" t="n">
         <v>10</v>
@@ -15462,10 +15523,10 @@
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="76"/>
       <c r="C95" s="74" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D95" s="74" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E95" s="76" t="n">
         <v>10</v>
@@ -15478,16 +15539,16 @@
       </c>
       <c r="H95" s="10"/>
       <c r="I95" s="78" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="76"/>
       <c r="C96" s="74" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D96" s="74" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E96" s="76" t="n">
         <v>11</v>
@@ -15502,10 +15563,10 @@
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="76"/>
       <c r="C97" s="74" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D97" s="74" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E97" s="76" t="n">
         <v>12</v>
@@ -15520,10 +15581,10 @@
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="76"/>
       <c r="C98" s="74" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D98" s="74" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E98" s="76" t="n">
         <v>16</v>
@@ -15538,10 +15599,10 @@
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="76"/>
       <c r="C99" s="74" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D99" s="74" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E99" s="76" t="n">
         <v>17</v>
@@ -15556,10 +15617,10 @@
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="76"/>
       <c r="C100" s="74" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D100" s="74" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E100" s="76" t="n">
         <v>18</v>
@@ -15574,10 +15635,10 @@
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="76"/>
       <c r="C101" s="74" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="D101" s="74" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E101" s="76" t="n">
         <v>20</v>
@@ -15592,10 +15653,10 @@
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="76"/>
       <c r="C102" s="74" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D102" s="74" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E102" s="76" t="n">
         <v>21</v>
@@ -15610,10 +15671,10 @@
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="76"/>
       <c r="C103" s="74" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D103" s="74" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E103" s="76" t="n">
         <v>22</v>
@@ -15628,10 +15689,10 @@
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="76"/>
       <c r="C104" s="74" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D104" s="74" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E104" s="76" t="n">
         <v>23</v>
@@ -15646,10 +15707,10 @@
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="76"/>
       <c r="C105" s="74" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D105" s="74" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E105" s="76" t="n">
         <v>24</v>
@@ -15664,10 +15725,10 @@
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="76"/>
       <c r="C106" s="74" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="D106" s="74" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E106" s="76" t="n">
         <v>25</v>
@@ -15682,10 +15743,10 @@
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="76"/>
       <c r="C107" s="74" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D107" s="74" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="E107" s="76" t="n">
         <v>2</v>
@@ -15700,10 +15761,10 @@
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="76"/>
       <c r="C108" s="74" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D108" s="74" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="E108" s="76" t="n">
         <v>26</v>
@@ -15718,10 +15779,10 @@
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="76"/>
       <c r="C109" s="74" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D109" s="74" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="E109" s="76" t="n">
         <v>27</v>
@@ -15736,10 +15797,10 @@
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="76"/>
       <c r="C110" s="74" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D110" s="74" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="E110" s="76" t="n">
         <v>9</v>
@@ -15754,10 +15815,10 @@
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="76"/>
       <c r="C111" s="74" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D111" s="74" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E111" s="76" t="n">
         <v>1</v>
@@ -15772,10 +15833,10 @@
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="76"/>
       <c r="C112" s="74" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D112" s="74" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E112" s="76" t="n">
         <v>2</v>
@@ -15790,10 +15851,10 @@
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="76"/>
       <c r="C113" s="74" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="D113" s="74" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E113" s="76" t="n">
         <v>3</v>
@@ -15808,10 +15869,10 @@
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="76"/>
       <c r="C114" s="74" t="s">
+        <v>485</v>
+      </c>
+      <c r="D114" s="74" t="s">
         <v>482</v>
-      </c>
-      <c r="D114" s="74" t="s">
-        <v>479</v>
       </c>
       <c r="E114" s="76" t="n">
         <v>5</v>
@@ -15826,10 +15887,10 @@
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="76"/>
       <c r="C115" s="74" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="D115" s="74" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E115" s="76" t="n">
         <v>6</v>
@@ -15844,10 +15905,10 @@
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="76"/>
       <c r="C116" s="74" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="D116" s="74" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E116" s="76" t="n">
         <v>7</v>
@@ -15862,10 +15923,10 @@
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="76"/>
       <c r="C117" s="74" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="D117" s="74" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E117" s="76" t="n">
         <v>8</v>
@@ -15880,10 +15941,10 @@
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="76"/>
       <c r="C118" s="74" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="D118" s="74" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E118" s="76" t="n">
         <v>9</v>
@@ -15898,10 +15959,10 @@
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="76"/>
       <c r="C119" s="74" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D119" s="74" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E119" s="76" t="n">
         <v>10</v>
@@ -15916,10 +15977,10 @@
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="76"/>
       <c r="C120" s="74" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="D120" s="74" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E120" s="76" t="n">
         <v>11</v>
@@ -15934,10 +15995,10 @@
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="76"/>
       <c r="C121" s="74" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="D121" s="74" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E121" s="76" t="n">
         <v>15</v>
@@ -15952,10 +16013,10 @@
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="76"/>
       <c r="C122" s="74" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D122" s="74" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E122" s="76" t="n">
         <v>17</v>
@@ -15970,10 +16031,10 @@
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="76"/>
       <c r="C123" s="74" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D123" s="74" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E123" s="76" t="n">
         <v>18</v>
@@ -15988,10 +16049,10 @@
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="76"/>
       <c r="C124" s="74" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="D124" s="74" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E124" s="76" t="n">
         <v>19</v>
@@ -16006,10 +16067,10 @@
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="76"/>
       <c r="C125" s="74" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="D125" s="74" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E125" s="76" t="n">
         <v>20</v>
@@ -16024,10 +16085,10 @@
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="76"/>
       <c r="C126" s="74" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="D126" s="74" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E126" s="76" t="n">
         <v>20</v>
@@ -16040,16 +16101,16 @@
       </c>
       <c r="H126" s="10"/>
       <c r="I126" s="78" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="76"/>
       <c r="C127" s="74" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D127" s="74" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E127" s="76" t="n">
         <v>22</v>
@@ -16064,10 +16125,10 @@
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="76"/>
       <c r="C128" s="74" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="D128" s="74" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E128" s="76" t="n">
         <v>23</v>
@@ -16082,32 +16143,32 @@
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="76"/>
       <c r="C129" s="74" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="D129" s="74" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E129" s="76" t="n">
         <v>23</v>
       </c>
       <c r="F129" s="77" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G129" s="75" t="n">
         <v>100000</v>
       </c>
       <c r="H129" s="10"/>
       <c r="I129" s="78" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="76"/>
       <c r="C130" s="74" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D130" s="74" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E130" s="76" t="n">
         <v>25</v>
@@ -16122,10 +16183,10 @@
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="76"/>
       <c r="C131" s="74" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="D131" s="74" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="E131" s="76" t="n">
         <v>1</v>
@@ -16140,10 +16201,10 @@
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="76"/>
       <c r="C132" s="74" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="D132" s="74" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="E132" s="76" t="n">
         <v>2</v>
@@ -16158,10 +16219,10 @@
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="76"/>
       <c r="C133" s="74" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D133" s="74" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="E133" s="76" t="n">
         <v>3</v>
@@ -16176,10 +16237,10 @@
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="76"/>
       <c r="C134" s="74" t="s">
+        <v>505</v>
+      </c>
+      <c r="D134" s="74" t="s">
         <v>502</v>
-      </c>
-      <c r="D134" s="74" t="s">
-        <v>499</v>
       </c>
       <c r="E134" s="76" t="n">
         <v>5</v>
@@ -16194,10 +16255,10 @@
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="76"/>
       <c r="C135" s="74" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="D135" s="74" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="E135" s="76" t="n">
         <v>8</v>
@@ -16212,10 +16273,10 @@
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="76"/>
       <c r="C136" s="74" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="D136" s="74" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="E136" s="76" t="n">
         <v>9</v>
@@ -16230,10 +16291,10 @@
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="76"/>
       <c r="C137" s="74" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="D137" s="74" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="E137" s="76" t="n">
         <v>10</v>
@@ -16248,10 +16309,10 @@
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="76"/>
       <c r="C138" s="74" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D138" s="74" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="E138" s="76" t="n">
         <v>11</v>
@@ -16266,10 +16327,10 @@
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="76"/>
       <c r="C139" s="74" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="D139" s="74" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="E139" s="76" t="n">
         <v>12</v>
@@ -16284,10 +16345,10 @@
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="76"/>
       <c r="C140" s="74" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="D140" s="74" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="E140" s="76" t="n">
         <v>15</v>
@@ -16302,10 +16363,10 @@
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="76"/>
       <c r="C141" s="74" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="D141" s="74" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="E141" s="76" t="n">
         <v>16</v>
@@ -16320,10 +16381,10 @@
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="76"/>
       <c r="C142" s="74" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="D142" s="74" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="E142" s="76" t="n">
         <v>17</v>
@@ -16338,10 +16399,10 @@
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="76"/>
       <c r="C143" s="74" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="D143" s="74" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="E143" s="76" t="n">
         <v>18</v>
@@ -16356,10 +16417,10 @@
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="76"/>
       <c r="C144" s="74" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="D144" s="74" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="E144" s="76" t="n">
         <v>2</v>
@@ -16374,10 +16435,10 @@
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="76"/>
       <c r="C145" s="74" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="D145" s="74" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="E145" s="76" t="n">
         <v>23</v>
@@ -16392,10 +16453,10 @@
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="76"/>
       <c r="C146" s="74" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="D146" s="74" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="E146" s="76" t="n">
         <v>15</v>
@@ -16406,16 +16467,16 @@
       </c>
       <c r="H146" s="10"/>
       <c r="I146" s="78" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="76"/>
       <c r="C147" s="74" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="D147" s="74" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="E147" s="76" t="n">
         <v>24</v>
@@ -16430,10 +16491,10 @@
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="76"/>
       <c r="C148" s="74" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D148" s="74" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="E148" s="76" t="n">
         <v>25</v>
@@ -16448,10 +16509,10 @@
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="76"/>
       <c r="C149" s="74" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D149" s="74" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="E149" s="76" t="n">
         <v>26</v>
@@ -16466,10 +16527,10 @@
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="76"/>
       <c r="C150" s="74" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="D150" s="74" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="E150" s="76" t="n">
         <v>2</v>
@@ -16484,10 +16545,10 @@
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="76"/>
       <c r="C151" s="74" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D151" s="74" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="E151" s="76" t="n">
         <v>3</v>
@@ -16502,10 +16563,10 @@
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B152" s="76"/>
       <c r="C152" s="74" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D152" s="74" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="E152" s="76" t="n">
         <v>5</v>
@@ -16520,10 +16581,10 @@
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="76"/>
       <c r="C153" s="74" t="s">
+        <v>526</v>
+      </c>
+      <c r="D153" s="74" t="s">
         <v>523</v>
-      </c>
-      <c r="D153" s="74" t="s">
-        <v>520</v>
       </c>
       <c r="E153" s="76" t="n">
         <v>7</v>
@@ -16538,10 +16599,10 @@
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="76"/>
       <c r="C154" s="74" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="D154" s="74" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="E154" s="76" t="n">
         <v>8</v>
@@ -16556,10 +16617,10 @@
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="76"/>
       <c r="C155" s="74" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="D155" s="74" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="E155" s="76" t="n">
         <v>12</v>
@@ -16574,10 +16635,10 @@
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="76"/>
       <c r="C156" s="74" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="D156" s="74" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="E156" s="76" t="n">
         <v>17</v>
@@ -16592,10 +16653,10 @@
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="76"/>
       <c r="C157" s="74" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="D157" s="74" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="E157" s="76" t="n">
         <v>18</v>
@@ -16610,10 +16671,10 @@
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="76"/>
       <c r="C158" s="74" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="D158" s="74" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="E158" s="76" t="n">
         <v>23</v>
@@ -16628,10 +16689,10 @@
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="76"/>
       <c r="C159" s="74" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="D159" s="74" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="E159" s="76" t="n">
         <v>24</v>
@@ -16646,32 +16707,32 @@
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B160" s="76"/>
       <c r="C160" s="74" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="D160" s="74" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="E160" s="76" t="n">
         <v>24</v>
       </c>
       <c r="F160" s="77" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="G160" s="75" t="n">
         <v>100000</v>
       </c>
       <c r="H160" s="10"/>
       <c r="I160" s="78" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B161" s="76"/>
       <c r="C161" s="74" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="D161" s="74" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="E161" s="76" t="n">
         <v>27</v>
@@ -16686,10 +16747,10 @@
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="76"/>
       <c r="C162" s="74" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="D162" s="74" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="E162" s="76" t="n">
         <v>1</v>
@@ -16704,10 +16765,10 @@
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B163" s="76"/>
       <c r="C163" s="74" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="D163" s="74" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="E163" s="76" t="n">
         <v>2</v>
@@ -16722,10 +16783,10 @@
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="76"/>
       <c r="C164" s="74" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="D164" s="74" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="E164" s="76" t="n">
         <v>3</v>
@@ -16740,10 +16801,10 @@
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="76"/>
       <c r="C165" s="74" t="s">
+        <v>540</v>
+      </c>
+      <c r="D165" s="74" t="s">
         <v>537</v>
-      </c>
-      <c r="D165" s="74" t="s">
-        <v>534</v>
       </c>
       <c r="E165" s="76" t="n">
         <v>5</v>
@@ -16758,17 +16819,19 @@
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="76"/>
       <c r="C166" s="74" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D166" s="74" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="E166" s="76" t="n">
-        <v>6</v>
-      </c>
-      <c r="F166" s="77"/>
+        <v>5</v>
+      </c>
+      <c r="F166" s="77" t="s">
+        <v>541</v>
+      </c>
       <c r="G166" s="75" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="H166" s="10"/>
       <c r="I166" s="78"/>
@@ -16776,17 +16839,17 @@
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B167" s="76"/>
       <c r="C167" s="74" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="D167" s="74" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="E167" s="76" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F167" s="77"/>
       <c r="G167" s="75" t="n">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="H167" s="10"/>
       <c r="I167" s="78"/>
@@ -16794,17 +16857,17 @@
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="76"/>
       <c r="C168" s="74" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="D168" s="74" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="E168" s="76" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F168" s="77"/>
       <c r="G168" s="75" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="H168" s="10"/>
       <c r="I168" s="78"/>
@@ -16812,13 +16875,13 @@
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B169" s="76"/>
       <c r="C169" s="74" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="D169" s="74" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="E169" s="76" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F169" s="77"/>
       <c r="G169" s="75" t="n">
@@ -16830,13 +16893,13 @@
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="76"/>
       <c r="C170" s="74" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D170" s="74" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="E170" s="76" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F170" s="77"/>
       <c r="G170" s="75" t="n">
@@ -16848,13 +16911,13 @@
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B171" s="76"/>
       <c r="C171" s="74" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="D171" s="74" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="E171" s="76" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F171" s="77"/>
       <c r="G171" s="75" t="n">
@@ -16866,17 +16929,17 @@
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B172" s="76"/>
       <c r="C172" s="74" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D172" s="74" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="E172" s="76" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F172" s="77"/>
       <c r="G172" s="75" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="H172" s="10"/>
       <c r="I172" s="78"/>
@@ -16884,17 +16947,17 @@
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B173" s="76"/>
       <c r="C173" s="74" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="D173" s="74" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="E173" s="76" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F173" s="77"/>
       <c r="G173" s="75" t="n">
-        <v>1400000</v>
+        <v>200000</v>
       </c>
       <c r="H173" s="10"/>
       <c r="I173" s="78"/>
@@ -16902,17 +16965,17 @@
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="76"/>
       <c r="C174" s="74" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="D174" s="74" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="E174" s="76" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F174" s="77"/>
       <c r="G174" s="75" t="n">
-        <v>0</v>
+        <v>1400000</v>
       </c>
       <c r="H174" s="10"/>
       <c r="I174" s="78"/>
@@ -16920,13 +16983,13 @@
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B175" s="76"/>
       <c r="C175" s="74" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="D175" s="74" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="E175" s="76" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F175" s="77"/>
       <c r="G175" s="75" t="n">
@@ -16938,13 +17001,13 @@
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="76"/>
       <c r="C176" s="74" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="D176" s="74" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="E176" s="76" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F176" s="77"/>
       <c r="G176" s="75" t="n">
@@ -16956,13 +17019,13 @@
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B177" s="76"/>
       <c r="C177" s="74" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="D177" s="74" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="E177" s="76" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F177" s="77"/>
       <c r="G177" s="75" t="n">
@@ -16974,13 +17037,13 @@
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="76"/>
       <c r="C178" s="74" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="D178" s="74" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="E178" s="76" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F178" s="77"/>
       <c r="G178" s="75" t="n">
@@ -16992,13 +17055,13 @@
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B179" s="76"/>
       <c r="C179" s="74" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="D179" s="74" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="E179" s="76" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F179" s="77"/>
       <c r="G179" s="75" t="n">
@@ -17010,13 +17073,13 @@
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B180" s="76"/>
       <c r="C180" s="74" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="D180" s="74" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="E180" s="76" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F180" s="77"/>
       <c r="G180" s="75" t="n">
@@ -17028,17 +17091,17 @@
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B181" s="76"/>
       <c r="C181" s="74" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="D181" s="74" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="E181" s="76" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F181" s="77"/>
       <c r="G181" s="75" t="n">
-        <v>400000</v>
+        <v>0</v>
       </c>
       <c r="H181" s="10"/>
       <c r="I181" s="78"/>
@@ -17046,17 +17109,17 @@
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B182" s="76"/>
       <c r="C182" s="74" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="D182" s="74" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="E182" s="76" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F182" s="77"/>
       <c r="G182" s="75" t="n">
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="H182" s="10"/>
       <c r="I182" s="78"/>
@@ -17064,17 +17127,17 @@
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B183" s="76"/>
       <c r="C183" s="74" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D183" s="74" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="E183" s="76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F183" s="77"/>
       <c r="G183" s="75" t="n">
-        <v>1100000</v>
+        <v>0</v>
       </c>
       <c r="H183" s="10"/>
       <c r="I183" s="78"/>
@@ -17082,17 +17145,17 @@
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B184" s="76"/>
       <c r="C184" s="74" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D184" s="74" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="E184" s="76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F184" s="77"/>
       <c r="G184" s="75" t="n">
-        <v>100000</v>
+        <v>1100000</v>
       </c>
       <c r="H184" s="10"/>
       <c r="I184" s="78"/>
@@ -17100,17 +17163,17 @@
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B185" s="76"/>
       <c r="C185" s="74" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="D185" s="74" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="E185" s="76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F185" s="77"/>
       <c r="G185" s="75" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="H185" s="10"/>
       <c r="I185" s="78"/>
@@ -17118,17 +17181,17 @@
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B186" s="76"/>
       <c r="C186" s="74" t="s">
+        <v>562</v>
+      </c>
+      <c r="D186" s="74" t="s">
         <v>559</v>
       </c>
-      <c r="D186" s="74" t="s">
-        <v>555</v>
-      </c>
       <c r="E186" s="76" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F186" s="77"/>
       <c r="G186" s="75" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="H186" s="10"/>
       <c r="I186" s="78"/>
@@ -17136,13 +17199,13 @@
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B187" s="76"/>
       <c r="C187" s="74" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="D187" s="74" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="E187" s="76" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F187" s="77"/>
       <c r="G187" s="75" t="n">
@@ -17154,17 +17217,17 @@
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B188" s="76"/>
       <c r="C188" s="74" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="D188" s="74" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="E188" s="76" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F188" s="77"/>
       <c r="G188" s="75" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="H188" s="10"/>
       <c r="I188" s="78"/>
@@ -17172,13 +17235,13 @@
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B189" s="76"/>
       <c r="C189" s="74" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="D189" s="74" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="E189" s="76" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F189" s="77"/>
       <c r="G189" s="75" t="n">
@@ -17190,13 +17253,13 @@
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="76"/>
       <c r="C190" s="74" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="D190" s="74" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="E190" s="76" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F190" s="77"/>
       <c r="G190" s="75" t="n">
@@ -17208,13 +17271,13 @@
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B191" s="76"/>
       <c r="C191" s="74" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="D191" s="74" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="E191" s="76" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F191" s="77"/>
       <c r="G191" s="75" t="n">
@@ -17226,13 +17289,13 @@
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B192" s="76"/>
       <c r="C192" s="74" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="D192" s="74" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="E192" s="76" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F192" s="77"/>
       <c r="G192" s="75" t="n">
@@ -17244,13 +17307,13 @@
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B193" s="76"/>
       <c r="C193" s="74" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="D193" s="74" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="E193" s="76" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F193" s="77"/>
       <c r="G193" s="75" t="n">
@@ -17262,13 +17325,13 @@
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B194" s="76"/>
       <c r="C194" s="74" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="D194" s="74" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="E194" s="76" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F194" s="77"/>
       <c r="G194" s="75" t="n">
@@ -17280,35 +17343,35 @@
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B195" s="76"/>
       <c r="C195" s="74" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="D195" s="74" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="E195" s="76" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F195" s="77"/>
       <c r="G195" s="75" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="H195" s="10"/>
-      <c r="I195" s="62"/>
+      <c r="I195" s="78"/>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B196" s="76"/>
       <c r="C196" s="74" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="D196" s="74" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="E196" s="76" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F196" s="77"/>
       <c r="G196" s="75" t="n">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="H196" s="10"/>
       <c r="I196" s="62"/>
@@ -17316,35 +17379,35 @@
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B197" s="76"/>
       <c r="C197" s="74" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="D197" s="74" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="E197" s="76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F197" s="77"/>
       <c r="G197" s="75" t="n">
-        <v>200000</v>
+        <v>1000000</v>
       </c>
       <c r="H197" s="10"/>
-      <c r="I197" s="78"/>
+      <c r="I197" s="62"/>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B198" s="76"/>
       <c r="C198" s="74" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="D198" s="74" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="E198" s="76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F198" s="77"/>
       <c r="G198" s="75" t="n">
-        <v>900000</v>
+        <v>200000</v>
       </c>
       <c r="H198" s="10"/>
       <c r="I198" s="78"/>
@@ -17352,57 +17415,57 @@
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B199" s="76"/>
       <c r="C199" s="74" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D199" s="74" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="E199" s="76" t="n">
         <v>3</v>
       </c>
-      <c r="F199" s="77" t="n">
-        <v>44962</v>
-      </c>
+      <c r="F199" s="77"/>
       <c r="G199" s="75" t="n">
-        <v>100000</v>
+        <v>900000</v>
       </c>
       <c r="H199" s="10"/>
-      <c r="I199" s="78" t="s">
-        <v>167</v>
-      </c>
+      <c r="I199" s="78"/>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B200" s="76"/>
       <c r="C200" s="74" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="D200" s="74" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="E200" s="76" t="n">
-        <v>5</v>
-      </c>
-      <c r="F200" s="77"/>
+        <v>3</v>
+      </c>
+      <c r="F200" s="77" t="n">
+        <v>44962</v>
+      </c>
       <c r="G200" s="75" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="H200" s="10"/>
-      <c r="I200" s="78"/>
+      <c r="I200" s="78" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B201" s="76"/>
       <c r="C201" s="74" t="s">
+        <v>577</v>
+      </c>
+      <c r="D201" s="74" t="s">
         <v>574</v>
       </c>
-      <c r="D201" s="74" t="s">
-        <v>570</v>
-      </c>
       <c r="E201" s="76" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F201" s="77"/>
       <c r="G201" s="75" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="H201" s="10"/>
       <c r="I201" s="78"/>
@@ -17410,17 +17473,17 @@
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B202" s="76"/>
       <c r="C202" s="74" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="D202" s="74" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="E202" s="76" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F202" s="77"/>
       <c r="G202" s="75" t="n">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="H202" s="10"/>
       <c r="I202" s="78"/>
@@ -17428,79 +17491,79 @@
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B203" s="76"/>
       <c r="C203" s="74" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="D203" s="74" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="E203" s="76" t="n">
         <v>9</v>
       </c>
-      <c r="F203" s="77" t="s">
-        <v>576</v>
-      </c>
+      <c r="F203" s="77"/>
       <c r="G203" s="75" t="n">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="H203" s="10"/>
-      <c r="I203" s="78" t="s">
-        <v>167</v>
-      </c>
+      <c r="I203" s="78"/>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B204" s="76"/>
       <c r="C204" s="74" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="D204" s="74" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="E204" s="76" t="n">
         <v>9</v>
       </c>
       <c r="F204" s="77" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="G204" s="75" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="H204" s="10"/>
       <c r="I204" s="78" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B205" s="76"/>
       <c r="C205" s="74" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D205" s="74" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="E205" s="76" t="n">
-        <v>10</v>
-      </c>
-      <c r="F205" s="77"/>
+        <v>9</v>
+      </c>
+      <c r="F205" s="77" t="s">
+        <v>581</v>
+      </c>
       <c r="G205" s="75" t="n">
         <v>100000</v>
       </c>
       <c r="H205" s="10"/>
-      <c r="I205" s="78"/>
+      <c r="I205" s="78" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B206" s="76"/>
       <c r="C206" s="74" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="D206" s="74" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="E206" s="76" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F206" s="77"/>
       <c r="G206" s="75" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="H206" s="10"/>
       <c r="I206" s="78"/>
@@ -17508,13 +17571,13 @@
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B207" s="76"/>
       <c r="C207" s="74" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="D207" s="74" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="E207" s="76" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F207" s="77"/>
       <c r="G207" s="75" t="n">
@@ -17526,13 +17589,13 @@
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B208" s="76"/>
       <c r="C208" s="74" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="D208" s="74" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="E208" s="76" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F208" s="77"/>
       <c r="G208" s="75" t="n">
@@ -17544,17 +17607,17 @@
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B209" s="76"/>
       <c r="C209" s="74" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="D209" s="74" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="E209" s="76" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F209" s="77"/>
       <c r="G209" s="75" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="H209" s="10"/>
       <c r="I209" s="78"/>
@@ -17562,13 +17625,13 @@
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B210" s="76"/>
       <c r="C210" s="74" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="D210" s="74" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="E210" s="76" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F210" s="77"/>
       <c r="G210" s="75" t="n">
@@ -17580,17 +17643,17 @@
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B211" s="76"/>
       <c r="C211" s="74" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="D211" s="74" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="E211" s="76" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F211" s="77"/>
       <c r="G211" s="75" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="H211" s="10"/>
       <c r="I211" s="78"/>
@@ -17598,17 +17661,17 @@
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B212" s="76"/>
       <c r="C212" s="74" t="s">
-        <v>34</v>
+        <v>588</v>
       </c>
       <c r="D212" s="74" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="E212" s="76" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F212" s="77"/>
       <c r="G212" s="75" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="H212" s="10"/>
       <c r="I212" s="78"/>
@@ -17616,17 +17679,17 @@
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B213" s="76"/>
       <c r="C213" s="74" t="s">
-        <v>585</v>
+        <v>34</v>
       </c>
       <c r="D213" s="74" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="E213" s="76" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F213" s="77"/>
       <c r="G213" s="75" t="n">
-        <v>1000000</v>
+        <v>200000</v>
       </c>
       <c r="H213" s="10"/>
       <c r="I213" s="78"/>
@@ -17634,17 +17697,17 @@
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B214" s="76"/>
       <c r="C214" s="74" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="D214" s="74" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="E214" s="76" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F214" s="77"/>
       <c r="G214" s="75" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="H214" s="10"/>
       <c r="I214" s="78"/>
@@ -17652,13 +17715,13 @@
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B215" s="76"/>
       <c r="C215" s="74" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="D215" s="74" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="E215" s="76" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F215" s="77"/>
       <c r="G215" s="75" t="n">
@@ -17670,17 +17733,17 @@
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B216" s="76"/>
       <c r="C216" s="74" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="D216" s="74" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="E216" s="76" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F216" s="77"/>
       <c r="G216" s="75" t="n">
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="H216" s="10"/>
       <c r="I216" s="78"/>
@@ -17688,17 +17751,17 @@
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B217" s="76"/>
       <c r="C217" s="74" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="D217" s="74" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="E217" s="76" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F217" s="77"/>
       <c r="G217" s="75" t="n">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="H217" s="10"/>
       <c r="I217" s="78"/>
@@ -17706,13 +17769,13 @@
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B218" s="76"/>
       <c r="C218" s="74" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="D218" s="74" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="E218" s="76" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F218" s="77"/>
       <c r="G218" s="75" t="n">
@@ -17724,17 +17787,17 @@
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B219" s="76"/>
       <c r="C219" s="74" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="D219" s="74" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="E219" s="76" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F219" s="77"/>
       <c r="G219" s="75" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="H219" s="10"/>
       <c r="I219" s="78"/>
@@ -17742,17 +17805,17 @@
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B220" s="76"/>
       <c r="C220" s="74" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D220" s="74" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E220" s="76" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F220" s="77"/>
       <c r="G220" s="75" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="H220" s="10"/>
       <c r="I220" s="78"/>
@@ -17760,13 +17823,13 @@
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B221" s="76"/>
       <c r="C221" s="74" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="D221" s="74" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E221" s="76" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F221" s="77"/>
       <c r="G221" s="75" t="n">
@@ -17778,13 +17841,13 @@
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B222" s="76"/>
       <c r="C222" s="74" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="D222" s="74" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E222" s="76" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F222" s="77"/>
       <c r="G222" s="75" t="n">
@@ -17796,17 +17859,17 @@
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B223" s="76"/>
       <c r="C223" s="74" t="s">
+        <v>599</v>
+      </c>
+      <c r="D223" s="74" t="s">
         <v>596</v>
       </c>
-      <c r="D223" s="74" t="s">
-        <v>592</v>
-      </c>
       <c r="E223" s="76" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F223" s="77"/>
       <c r="G223" s="75" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="H223" s="10"/>
       <c r="I223" s="78"/>
@@ -17814,13 +17877,13 @@
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="76"/>
       <c r="C224" s="74" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="D224" s="74" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E224" s="76" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F224" s="77"/>
       <c r="G224" s="75" t="n">
@@ -17832,17 +17895,17 @@
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B225" s="76"/>
       <c r="C225" s="74" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="D225" s="74" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E225" s="76" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F225" s="77"/>
       <c r="G225" s="75" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="H225" s="10"/>
       <c r="I225" s="78"/>
@@ -17850,53 +17913,53 @@
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="76"/>
       <c r="C226" s="74" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="D226" s="74" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E226" s="76" t="n">
-        <v>24</v>
-      </c>
-      <c r="F226" s="77" t="n">
-        <v>45235</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F226" s="77"/>
       <c r="G226" s="75" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="H226" s="10"/>
-      <c r="I226" s="78" t="s">
-        <v>167</v>
-      </c>
+      <c r="I226" s="78"/>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B227" s="76"/>
       <c r="C227" s="74" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="D227" s="74" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E227" s="76" t="n">
-        <v>26</v>
-      </c>
-      <c r="F227" s="77"/>
+        <v>24</v>
+      </c>
+      <c r="F227" s="77" t="n">
+        <v>45235</v>
+      </c>
       <c r="G227" s="75" t="n">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="H227" s="10"/>
-      <c r="I227" s="78"/>
+      <c r="I227" s="78" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B228" s="76"/>
       <c r="C228" s="74" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="D228" s="74" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E228" s="76" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F228" s="77"/>
       <c r="G228" s="75" t="n">
@@ -17908,17 +17971,17 @@
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B229" s="76"/>
       <c r="C229" s="74" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D229" s="74" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="E229" s="76" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="F229" s="77"/>
       <c r="G229" s="75" t="n">
-        <v>300000</v>
+        <v>100000</v>
       </c>
       <c r="H229" s="10"/>
       <c r="I229" s="78"/>
@@ -17926,17 +17989,17 @@
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="76"/>
       <c r="C230" s="74" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D230" s="74" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="E230" s="76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F230" s="77"/>
       <c r="G230" s="75" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="H230" s="10"/>
       <c r="I230" s="78"/>
@@ -17944,13 +18007,13 @@
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B231" s="76"/>
       <c r="C231" s="74" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="D231" s="74" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="E231" s="76" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F231" s="77"/>
       <c r="G231" s="75" t="n">
@@ -17962,17 +18025,17 @@
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="76"/>
       <c r="C232" s="74" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="D232" s="74" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="E232" s="76" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F232" s="77"/>
       <c r="G232" s="75" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="H232" s="10"/>
       <c r="I232" s="78"/>
@@ -17980,17 +18043,17 @@
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B233" s="76"/>
       <c r="C233" s="74" t="s">
+        <v>610</v>
+      </c>
+      <c r="D233" s="74" t="s">
         <v>607</v>
       </c>
-      <c r="D233" s="74" t="s">
-        <v>603</v>
-      </c>
       <c r="E233" s="76" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F233" s="77"/>
       <c r="G233" s="75" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="H233" s="10"/>
       <c r="I233" s="78"/>
@@ -17998,13 +18061,13 @@
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="76"/>
       <c r="C234" s="74" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="D234" s="74" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="E234" s="76" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F234" s="77"/>
       <c r="G234" s="75" t="n">
@@ -18016,17 +18079,17 @@
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B235" s="76"/>
       <c r="C235" s="74" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="D235" s="74" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="E235" s="76" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F235" s="77"/>
       <c r="G235" s="75" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="H235" s="10"/>
       <c r="I235" s="78"/>
@@ -18034,17 +18097,17 @@
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="76"/>
       <c r="C236" s="74" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="D236" s="74" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="E236" s="76" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F236" s="77"/>
       <c r="G236" s="75" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="H236" s="10"/>
       <c r="I236" s="78"/>
@@ -18052,13 +18115,13 @@
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B237" s="76"/>
       <c r="C237" s="74" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="D237" s="74" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="E237" s="76" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F237" s="77"/>
       <c r="G237" s="75" t="n">
@@ -18070,17 +18133,17 @@
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B238" s="76"/>
       <c r="C238" s="74" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="D238" s="74" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="E238" s="76" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F238" s="77"/>
       <c r="G238" s="75" t="n">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="H238" s="10"/>
       <c r="I238" s="78"/>
@@ -18088,17 +18151,17 @@
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B239" s="76"/>
       <c r="C239" s="74" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="D239" s="74" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="E239" s="76" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F239" s="77"/>
       <c r="G239" s="75" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="H239" s="10"/>
       <c r="I239" s="78"/>
@@ -18106,17 +18169,17 @@
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B240" s="76"/>
       <c r="C240" s="74" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D240" s="74" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="E240" s="76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F240" s="77"/>
       <c r="G240" s="75" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="H240" s="10"/>
       <c r="I240" s="78"/>
@@ -18124,17 +18187,17 @@
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B241" s="76"/>
       <c r="C241" s="74" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="D241" s="74" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="E241" s="76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F241" s="77"/>
       <c r="G241" s="75" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="H241" s="10"/>
       <c r="I241" s="78"/>
@@ -18142,13 +18205,13 @@
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B242" s="76"/>
       <c r="C242" s="74" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="D242" s="74" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="E242" s="76" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F242" s="77"/>
       <c r="G242" s="75" t="n">
@@ -18160,17 +18223,17 @@
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B243" s="76"/>
       <c r="C243" s="74" t="s">
+        <v>621</v>
+      </c>
+      <c r="D243" s="74" t="s">
         <v>618</v>
       </c>
-      <c r="D243" s="74" t="s">
-        <v>614</v>
-      </c>
       <c r="E243" s="76" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F243" s="77"/>
       <c r="G243" s="75" t="n">
-        <v>400000</v>
+        <v>0</v>
       </c>
       <c r="H243" s="10"/>
       <c r="I243" s="78"/>
@@ -18178,17 +18241,17 @@
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B244" s="76"/>
       <c r="C244" s="74" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="D244" s="74" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="E244" s="76" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F244" s="77"/>
       <c r="G244" s="75" t="n">
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="H244" s="10"/>
       <c r="I244" s="78"/>
@@ -18196,49 +18259,49 @@
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B245" s="76"/>
       <c r="C245" s="74" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="D245" s="74" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="E245" s="76" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F245" s="77"/>
       <c r="G245" s="75" t="n">
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="H245" s="10"/>
-      <c r="I245" s="62"/>
+      <c r="I245" s="78"/>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B246" s="76"/>
       <c r="C246" s="74" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D246" s="74" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="E246" s="76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F246" s="77"/>
       <c r="G246" s="75" t="n">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="H246" s="10"/>
-      <c r="I246" s="78"/>
+      <c r="I246" s="62"/>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="76"/>
       <c r="C247" s="74" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="D247" s="74" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="E247" s="76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F247" s="77"/>
       <c r="G247" s="75" t="n">
@@ -18250,17 +18313,17 @@
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="76"/>
       <c r="C248" s="74" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="D248" s="74" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="E248" s="76" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F248" s="77"/>
       <c r="G248" s="75" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="H248" s="10"/>
       <c r="I248" s="78"/>
@@ -18268,57 +18331,57 @@
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B249" s="76"/>
       <c r="C249" s="74" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="D249" s="74" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="E249" s="76" t="n">
         <v>8</v>
       </c>
-      <c r="F249" s="77" t="s">
-        <v>625</v>
-      </c>
+      <c r="F249" s="77"/>
       <c r="G249" s="75" t="n">
         <v>100000</v>
       </c>
       <c r="H249" s="10"/>
-      <c r="I249" s="78" t="s">
-        <v>167</v>
-      </c>
+      <c r="I249" s="78"/>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="76"/>
       <c r="C250" s="74" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D250" s="74" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="E250" s="76" t="n">
-        <v>10</v>
-      </c>
-      <c r="F250" s="77"/>
+        <v>8</v>
+      </c>
+      <c r="F250" s="77" t="s">
+        <v>629</v>
+      </c>
       <c r="G250" s="75" t="n">
-        <v>300000</v>
+        <v>100000</v>
       </c>
       <c r="H250" s="10"/>
-      <c r="I250" s="78"/>
+      <c r="I250" s="78" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B251" s="76"/>
       <c r="C251" s="74" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="D251" s="74" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="E251" s="76" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F251" s="77"/>
       <c r="G251" s="75" t="n">
-        <v>80000</v>
+        <v>300000</v>
       </c>
       <c r="H251" s="10"/>
       <c r="I251" s="78"/>
@@ -18326,17 +18389,17 @@
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="76"/>
       <c r="C252" s="74" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="D252" s="74" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="E252" s="76" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F252" s="77"/>
       <c r="G252" s="75" t="n">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="H252" s="10"/>
       <c r="I252" s="78"/>
@@ -18344,13 +18407,13 @@
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B253" s="76"/>
       <c r="C253" s="74" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="D253" s="74" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="E253" s="76" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F253" s="77"/>
       <c r="G253" s="75" t="n">
@@ -18362,13 +18425,13 @@
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B254" s="76"/>
       <c r="C254" s="74" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="D254" s="74" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="E254" s="76" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F254" s="77"/>
       <c r="G254" s="75" t="n">
@@ -18380,17 +18443,17 @@
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B255" s="76"/>
       <c r="C255" s="74" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="D255" s="74" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="E255" s="76" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F255" s="77"/>
       <c r="G255" s="75" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="H255" s="10"/>
       <c r="I255" s="78"/>
@@ -18398,17 +18461,17 @@
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B256" s="76"/>
       <c r="C256" s="74" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="D256" s="74" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="E256" s="76" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F256" s="77"/>
       <c r="G256" s="75" t="n">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="H256" s="10"/>
       <c r="I256" s="78"/>
@@ -18416,17 +18479,17 @@
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B257" s="76"/>
       <c r="C257" s="74" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="D257" s="74" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="E257" s="76" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F257" s="77"/>
       <c r="G257" s="75" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="H257" s="10"/>
       <c r="I257" s="78"/>
@@ -18434,13 +18497,13 @@
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B258" s="76"/>
       <c r="C258" s="74" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="D258" s="74" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="E258" s="76" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F258" s="77"/>
       <c r="G258" s="75" t="n">
@@ -18452,13 +18515,13 @@
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B259" s="76"/>
       <c r="C259" s="74" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="D259" s="74" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="E259" s="76" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F259" s="77"/>
       <c r="G259" s="75" t="n">
@@ -18470,13 +18533,13 @@
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="76"/>
       <c r="C260" s="74" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="D260" s="74" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="E260" s="76" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F260" s="77"/>
       <c r="G260" s="75" t="n">
@@ -18488,13 +18551,13 @@
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B261" s="76"/>
       <c r="C261" s="74" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="D261" s="74" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="E261" s="76" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="F261" s="77"/>
       <c r="G261" s="75" t="n">
@@ -18506,17 +18569,17 @@
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B262" s="76"/>
       <c r="C262" s="74" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D262" s="74" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="E262" s="76" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F262" s="77"/>
       <c r="G262" s="75" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="H262" s="10"/>
       <c r="I262" s="78"/>
@@ -18524,58 +18587,76 @@
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B263" s="76"/>
       <c r="C263" s="74" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="D263" s="74" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="E263" s="76" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F263" s="77"/>
       <c r="G263" s="75" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="H263" s="10"/>
       <c r="I263" s="78"/>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B264" s="10"/>
+      <c r="B264" s="76"/>
       <c r="C264" s="74" t="s">
-        <v>641</v>
-      </c>
-      <c r="D264" s="10"/>
-      <c r="E264" s="10"/>
-      <c r="F264" s="79"/>
-      <c r="G264" s="80" t="n">
-        <v>5000000</v>
+        <v>644</v>
+      </c>
+      <c r="D264" s="74" t="s">
+        <v>642</v>
+      </c>
+      <c r="E264" s="76" t="n">
+        <v>9</v>
+      </c>
+      <c r="F264" s="77"/>
+      <c r="G264" s="75" t="n">
+        <v>0</v>
       </c>
       <c r="H264" s="10"/>
       <c r="I264" s="78"/>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B265" s="81" t="s">
-        <v>642</v>
-      </c>
-      <c r="C265" s="81"/>
-      <c r="D265" s="81"/>
-      <c r="E265" s="81"/>
-      <c r="F265" s="82"/>
-      <c r="G265" s="83" t="n">
-        <f aca="false">SUM(G7:G264)</f>
-        <v>71490000</v>
-      </c>
-      <c r="H265" s="1"/>
-    </row>
-    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G267" s="84"/>
+      <c r="B265" s="10"/>
+      <c r="C265" s="74" t="s">
+        <v>645</v>
+      </c>
+      <c r="D265" s="10"/>
+      <c r="E265" s="10"/>
+      <c r="F265" s="79"/>
+      <c r="G265" s="80" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="H265" s="10"/>
+      <c r="I265" s="78"/>
+    </row>
+    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B266" s="81" t="s">
+        <v>646</v>
+      </c>
+      <c r="C266" s="81"/>
+      <c r="D266" s="81"/>
+      <c r="E266" s="81"/>
+      <c r="F266" s="82"/>
+      <c r="G266" s="83" t="n">
+        <f aca="false">SUM(G7:G265)</f>
+        <v>71690000</v>
+      </c>
+      <c r="H266" s="1"/>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G268" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B265:E265"/>
+    <mergeCell ref="B266:E266"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Laporan_Keuangan_Masjid_Al_Multajam_2023.xlsx
+++ b/Laporan_Keuangan_Masjid_Al_Multajam_2023.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="649">
   <si>
     <t xml:space="preserve">MASJID CLUSTER GRAND SUTERA</t>
   </si>
@@ -1604,6 +1604,12 @@
   </si>
   <si>
     <t xml:space="preserve">SG 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Febri </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TF PAK SUGENG</t>
   </si>
   <si>
     <t xml:space="preserve">Abdul Rachman Rudiansyah</t>
@@ -4295,7 +4301,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A84" activeCellId="0" sqref="A84"/>
-      <selection pane="bottomRight" activeCell="D104" activeCellId="0" sqref="D104"/>
+      <selection pane="bottomRight" activeCell="D100" activeCellId="0" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6566,7 +6572,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13833,14 +13839,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:I268"/>
+  <dimension ref="B1:I269"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E163" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="E256" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
-      <selection pane="bottomRight" activeCell="F166" activeCellId="0" sqref="F166"/>
+      <selection pane="bottomLeft" activeCell="A256" activeCellId="0" sqref="A256"/>
+      <selection pane="bottomRight" activeCell="G263" activeCellId="0" sqref="G263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16441,34 +16447,34 @@
         <v>515</v>
       </c>
       <c r="E145" s="76" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F145" s="77"/>
       <c r="G145" s="75" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="H145" s="10"/>
-      <c r="I145" s="78"/>
+      <c r="I145" s="78" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="76"/>
       <c r="C146" s="74" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D146" s="74" t="s">
         <v>515</v>
       </c>
       <c r="E146" s="76" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F146" s="77"/>
       <c r="G146" s="75" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="H146" s="10"/>
-      <c r="I146" s="78" t="s">
-        <v>518</v>
-      </c>
+      <c r="I146" s="78"/>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="76"/>
@@ -16479,25 +16485,27 @@
         <v>515</v>
       </c>
       <c r="E147" s="76" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F147" s="77"/>
       <c r="G147" s="75" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="H147" s="10"/>
-      <c r="I147" s="78"/>
+      <c r="I147" s="78" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="76"/>
       <c r="C148" s="74" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D148" s="74" t="s">
         <v>515</v>
       </c>
       <c r="E148" s="76" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F148" s="77"/>
       <c r="G148" s="75" t="n">
@@ -16509,13 +16517,13 @@
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="76"/>
       <c r="C149" s="74" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D149" s="74" t="s">
         <v>515</v>
       </c>
       <c r="E149" s="76" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F149" s="77"/>
       <c r="G149" s="75" t="n">
@@ -16527,13 +16535,13 @@
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="76"/>
       <c r="C150" s="74" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D150" s="74" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="E150" s="76" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="F150" s="77"/>
       <c r="G150" s="75" t="n">
@@ -16548,14 +16556,14 @@
         <v>524</v>
       </c>
       <c r="D151" s="74" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E151" s="76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F151" s="77"/>
       <c r="G151" s="75" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="H151" s="10"/>
       <c r="I151" s="78"/>
@@ -16563,17 +16571,17 @@
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B152" s="76"/>
       <c r="C152" s="74" t="s">
+        <v>526</v>
+      </c>
+      <c r="D152" s="74" t="s">
         <v>525</v>
       </c>
-      <c r="D152" s="74" t="s">
-        <v>523</v>
-      </c>
       <c r="E152" s="76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F152" s="77"/>
       <c r="G152" s="75" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="H152" s="10"/>
       <c r="I152" s="78"/>
@@ -16581,13 +16589,13 @@
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="76"/>
       <c r="C153" s="74" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D153" s="74" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E153" s="76" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F153" s="77"/>
       <c r="G153" s="75" t="n">
@@ -16599,13 +16607,13 @@
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="76"/>
       <c r="C154" s="74" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D154" s="74" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E154" s="76" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F154" s="77"/>
       <c r="G154" s="75" t="n">
@@ -16617,17 +16625,17 @@
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="76"/>
       <c r="C155" s="74" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D155" s="74" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E155" s="76" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F155" s="77"/>
       <c r="G155" s="75" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="H155" s="10"/>
       <c r="I155" s="78"/>
@@ -16635,17 +16643,17 @@
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="76"/>
       <c r="C156" s="74" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D156" s="74" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E156" s="76" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F156" s="77"/>
       <c r="G156" s="75" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="H156" s="10"/>
       <c r="I156" s="78"/>
@@ -16653,17 +16661,17 @@
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="76"/>
       <c r="C157" s="74" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D157" s="74" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E157" s="76" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F157" s="77"/>
       <c r="G157" s="75" t="n">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="H157" s="10"/>
       <c r="I157" s="78"/>
@@ -16671,17 +16679,17 @@
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="76"/>
       <c r="C158" s="74" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D158" s="74" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E158" s="76" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F158" s="77"/>
       <c r="G158" s="75" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="H158" s="10"/>
       <c r="I158" s="78"/>
@@ -16689,17 +16697,17 @@
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="76"/>
       <c r="C159" s="74" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D159" s="74" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E159" s="76" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F159" s="77"/>
       <c r="G159" s="75" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="H159" s="10"/>
       <c r="I159" s="78"/>
@@ -16707,57 +16715,57 @@
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B160" s="76"/>
       <c r="C160" s="74" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D160" s="74" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E160" s="76" t="n">
         <v>24</v>
       </c>
-      <c r="F160" s="77" t="s">
-        <v>533</v>
-      </c>
+      <c r="F160" s="77"/>
       <c r="G160" s="75" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="H160" s="10"/>
-      <c r="I160" s="78" t="s">
-        <v>534</v>
-      </c>
+      <c r="I160" s="78"/>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B161" s="76"/>
       <c r="C161" s="74" t="s">
+        <v>534</v>
+      </c>
+      <c r="D161" s="74" t="s">
+        <v>525</v>
+      </c>
+      <c r="E161" s="76" t="n">
+        <v>24</v>
+      </c>
+      <c r="F161" s="77" t="s">
         <v>535</v>
       </c>
-      <c r="D161" s="74" t="s">
-        <v>523</v>
-      </c>
-      <c r="E161" s="76" t="n">
-        <v>27</v>
-      </c>
-      <c r="F161" s="77"/>
       <c r="G161" s="75" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="H161" s="10"/>
-      <c r="I161" s="78"/>
+      <c r="I161" s="78" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="76"/>
       <c r="C162" s="74" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D162" s="74" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="E162" s="76" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="F162" s="77"/>
       <c r="G162" s="75" t="n">
-        <v>700000</v>
+        <v>0</v>
       </c>
       <c r="H162" s="10"/>
       <c r="I162" s="78"/>
@@ -16768,14 +16776,14 @@
         <v>538</v>
       </c>
       <c r="D163" s="74" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E163" s="76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F163" s="77"/>
       <c r="G163" s="75" t="n">
-        <v>200000</v>
+        <v>700000</v>
       </c>
       <c r="H163" s="10"/>
       <c r="I163" s="78"/>
@@ -16783,17 +16791,17 @@
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="76"/>
       <c r="C164" s="74" t="s">
+        <v>540</v>
+      </c>
+      <c r="D164" s="74" t="s">
         <v>539</v>
       </c>
-      <c r="D164" s="74" t="s">
-        <v>537</v>
-      </c>
       <c r="E164" s="76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F164" s="77"/>
       <c r="G164" s="75" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="H164" s="10"/>
       <c r="I164" s="78"/>
@@ -16801,17 +16809,17 @@
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="76"/>
       <c r="C165" s="74" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D165" s="74" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E165" s="76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F165" s="77"/>
       <c r="G165" s="75" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="H165" s="10"/>
       <c r="I165" s="78"/>
@@ -16819,19 +16827,17 @@
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="76"/>
       <c r="C166" s="74" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D166" s="74" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E166" s="76" t="n">
         <v>5</v>
       </c>
-      <c r="F166" s="77" t="s">
-        <v>541</v>
-      </c>
+      <c r="F166" s="77"/>
       <c r="G166" s="75" t="n">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="H166" s="10"/>
       <c r="I166" s="78"/>
@@ -16842,14 +16848,16 @@
         <v>542</v>
       </c>
       <c r="D167" s="74" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E167" s="76" t="n">
-        <v>6</v>
-      </c>
-      <c r="F167" s="77"/>
+        <v>5</v>
+      </c>
+      <c r="F167" s="77" t="s">
+        <v>543</v>
+      </c>
       <c r="G167" s="75" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="H167" s="10"/>
       <c r="I167" s="78"/>
@@ -16857,17 +16865,17 @@
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="76"/>
       <c r="C168" s="74" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D168" s="74" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E168" s="76" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F168" s="77"/>
       <c r="G168" s="75" t="n">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="H168" s="10"/>
       <c r="I168" s="78"/>
@@ -16875,17 +16883,17 @@
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B169" s="76"/>
       <c r="C169" s="74" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D169" s="74" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E169" s="76" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F169" s="77"/>
       <c r="G169" s="75" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="H169" s="10"/>
       <c r="I169" s="78"/>
@@ -16893,13 +16901,13 @@
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="76"/>
       <c r="C170" s="74" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D170" s="74" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E170" s="76" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F170" s="77"/>
       <c r="G170" s="75" t="n">
@@ -16911,13 +16919,13 @@
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B171" s="76"/>
       <c r="C171" s="74" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D171" s="74" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E171" s="76" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F171" s="77"/>
       <c r="G171" s="75" t="n">
@@ -16929,13 +16937,13 @@
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B172" s="76"/>
       <c r="C172" s="74" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D172" s="74" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E172" s="76" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F172" s="77"/>
       <c r="G172" s="75" t="n">
@@ -16947,17 +16955,17 @@
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B173" s="76"/>
       <c r="C173" s="74" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D173" s="74" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E173" s="76" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F173" s="77"/>
       <c r="G173" s="75" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="H173" s="10"/>
       <c r="I173" s="78"/>
@@ -16965,17 +16973,17 @@
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="76"/>
       <c r="C174" s="74" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D174" s="74" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E174" s="76" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F174" s="77"/>
       <c r="G174" s="75" t="n">
-        <v>1400000</v>
+        <v>200000</v>
       </c>
       <c r="H174" s="10"/>
       <c r="I174" s="78"/>
@@ -16983,17 +16991,17 @@
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B175" s="76"/>
       <c r="C175" s="74" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D175" s="74" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E175" s="76" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F175" s="77"/>
       <c r="G175" s="75" t="n">
-        <v>0</v>
+        <v>1400000</v>
       </c>
       <c r="H175" s="10"/>
       <c r="I175" s="78"/>
@@ -17001,13 +17009,13 @@
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="76"/>
       <c r="C176" s="74" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D176" s="74" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E176" s="76" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F176" s="77"/>
       <c r="G176" s="75" t="n">
@@ -17019,13 +17027,13 @@
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B177" s="76"/>
       <c r="C177" s="74" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D177" s="74" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E177" s="76" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F177" s="77"/>
       <c r="G177" s="75" t="n">
@@ -17037,13 +17045,13 @@
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="76"/>
       <c r="C178" s="74" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D178" s="74" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E178" s="76" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F178" s="77"/>
       <c r="G178" s="75" t="n">
@@ -17055,13 +17063,13 @@
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B179" s="76"/>
       <c r="C179" s="74" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D179" s="74" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E179" s="76" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F179" s="77"/>
       <c r="G179" s="75" t="n">
@@ -17073,13 +17081,13 @@
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B180" s="76"/>
       <c r="C180" s="74" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D180" s="74" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E180" s="76" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F180" s="77"/>
       <c r="G180" s="75" t="n">
@@ -17091,13 +17099,13 @@
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B181" s="76"/>
       <c r="C181" s="74" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D181" s="74" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E181" s="76" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F181" s="77"/>
       <c r="G181" s="75" t="n">
@@ -17109,17 +17117,17 @@
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B182" s="76"/>
       <c r="C182" s="74" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D182" s="74" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E182" s="76" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F182" s="77"/>
       <c r="G182" s="75" t="n">
-        <v>400000</v>
+        <v>0</v>
       </c>
       <c r="H182" s="10"/>
       <c r="I182" s="78"/>
@@ -17127,17 +17135,17 @@
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B183" s="76"/>
       <c r="C183" s="74" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D183" s="74" t="s">
-        <v>559</v>
+        <v>539</v>
       </c>
       <c r="E183" s="76" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F183" s="77"/>
       <c r="G183" s="75" t="n">
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="H183" s="10"/>
       <c r="I183" s="78"/>
@@ -17148,14 +17156,14 @@
         <v>560</v>
       </c>
       <c r="D184" s="74" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E184" s="76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F184" s="77"/>
       <c r="G184" s="75" t="n">
-        <v>1100000</v>
+        <v>0</v>
       </c>
       <c r="H184" s="10"/>
       <c r="I184" s="78"/>
@@ -17163,17 +17171,17 @@
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B185" s="76"/>
       <c r="C185" s="74" t="s">
+        <v>562</v>
+      </c>
+      <c r="D185" s="74" t="s">
         <v>561</v>
       </c>
-      <c r="D185" s="74" t="s">
-        <v>559</v>
-      </c>
       <c r="E185" s="76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F185" s="77"/>
       <c r="G185" s="75" t="n">
-        <v>100000</v>
+        <v>1100000</v>
       </c>
       <c r="H185" s="10"/>
       <c r="I185" s="78"/>
@@ -17181,17 +17189,17 @@
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B186" s="76"/>
       <c r="C186" s="74" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D186" s="74" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E186" s="76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F186" s="77"/>
       <c r="G186" s="75" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="H186" s="10"/>
       <c r="I186" s="78"/>
@@ -17199,17 +17207,17 @@
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B187" s="76"/>
       <c r="C187" s="74" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D187" s="74" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E187" s="76" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F187" s="77"/>
       <c r="G187" s="75" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="H187" s="10"/>
       <c r="I187" s="78"/>
@@ -17217,13 +17225,13 @@
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B188" s="76"/>
       <c r="C188" s="74" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D188" s="74" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E188" s="76" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F188" s="77"/>
       <c r="G188" s="75" t="n">
@@ -17235,17 +17243,17 @@
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B189" s="76"/>
       <c r="C189" s="74" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D189" s="74" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E189" s="76" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F189" s="77"/>
       <c r="G189" s="75" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="H189" s="10"/>
       <c r="I189" s="78"/>
@@ -17253,13 +17261,13 @@
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="76"/>
       <c r="C190" s="74" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D190" s="74" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E190" s="76" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F190" s="77"/>
       <c r="G190" s="75" t="n">
@@ -17271,13 +17279,13 @@
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B191" s="76"/>
       <c r="C191" s="74" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D191" s="74" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E191" s="76" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F191" s="77"/>
       <c r="G191" s="75" t="n">
@@ -17289,13 +17297,13 @@
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B192" s="76"/>
       <c r="C192" s="74" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D192" s="74" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E192" s="76" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F192" s="77"/>
       <c r="G192" s="75" t="n">
@@ -17307,13 +17315,13 @@
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B193" s="76"/>
       <c r="C193" s="74" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D193" s="74" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E193" s="76" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F193" s="77"/>
       <c r="G193" s="75" t="n">
@@ -17325,13 +17333,13 @@
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B194" s="76"/>
       <c r="C194" s="74" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D194" s="74" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E194" s="76" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F194" s="77"/>
       <c r="G194" s="75" t="n">
@@ -17343,13 +17351,13 @@
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B195" s="76"/>
       <c r="C195" s="74" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D195" s="74" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E195" s="76" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F195" s="77"/>
       <c r="G195" s="75" t="n">
@@ -17361,35 +17369,35 @@
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B196" s="76"/>
       <c r="C196" s="74" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D196" s="74" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E196" s="76" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F196" s="77"/>
       <c r="G196" s="75" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="H196" s="10"/>
-      <c r="I196" s="62"/>
+      <c r="I196" s="78"/>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B197" s="76"/>
       <c r="C197" s="74" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D197" s="74" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="E197" s="76" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F197" s="77"/>
       <c r="G197" s="75" t="n">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="H197" s="10"/>
       <c r="I197" s="62"/>
@@ -17400,32 +17408,32 @@
         <v>575</v>
       </c>
       <c r="D198" s="74" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E198" s="76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F198" s="77"/>
       <c r="G198" s="75" t="n">
-        <v>200000</v>
+        <v>1000000</v>
       </c>
       <c r="H198" s="10"/>
-      <c r="I198" s="78"/>
+      <c r="I198" s="62"/>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B199" s="76"/>
       <c r="C199" s="74" t="s">
+        <v>577</v>
+      </c>
+      <c r="D199" s="74" t="s">
         <v>576</v>
       </c>
-      <c r="D199" s="74" t="s">
-        <v>574</v>
-      </c>
       <c r="E199" s="76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F199" s="77"/>
       <c r="G199" s="75" t="n">
-        <v>900000</v>
+        <v>200000</v>
       </c>
       <c r="H199" s="10"/>
       <c r="I199" s="78"/>
@@ -17433,57 +17441,57 @@
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B200" s="76"/>
       <c r="C200" s="74" t="s">
+        <v>578</v>
+      </c>
+      <c r="D200" s="74" t="s">
         <v>576</v>
-      </c>
-      <c r="D200" s="74" t="s">
-        <v>574</v>
       </c>
       <c r="E200" s="76" t="n">
         <v>3</v>
       </c>
-      <c r="F200" s="77" t="n">
-        <v>44962</v>
-      </c>
+      <c r="F200" s="77"/>
       <c r="G200" s="75" t="n">
-        <v>100000</v>
+        <v>900000</v>
       </c>
       <c r="H200" s="10"/>
-      <c r="I200" s="78" t="s">
-        <v>170</v>
-      </c>
+      <c r="I200" s="78"/>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B201" s="76"/>
       <c r="C201" s="74" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D201" s="74" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E201" s="76" t="n">
-        <v>5</v>
-      </c>
-      <c r="F201" s="77"/>
+        <v>3</v>
+      </c>
+      <c r="F201" s="77" t="n">
+        <v>44962</v>
+      </c>
       <c r="G201" s="75" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="H201" s="10"/>
-      <c r="I201" s="78"/>
+      <c r="I201" s="78" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B202" s="76"/>
       <c r="C202" s="74" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D202" s="74" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E202" s="76" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F202" s="77"/>
       <c r="G202" s="75" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="H202" s="10"/>
       <c r="I202" s="78"/>
@@ -17491,17 +17499,17 @@
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B203" s="76"/>
       <c r="C203" s="74" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D203" s="74" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E203" s="76" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F203" s="77"/>
       <c r="G203" s="75" t="n">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="H203" s="10"/>
       <c r="I203" s="78"/>
@@ -17509,41 +17517,37 @@
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B204" s="76"/>
       <c r="C204" s="74" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="D204" s="74" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E204" s="76" t="n">
         <v>9</v>
       </c>
-      <c r="F204" s="77" t="s">
-        <v>580</v>
-      </c>
+      <c r="F204" s="77"/>
       <c r="G204" s="75" t="n">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="H204" s="10"/>
-      <c r="I204" s="78" t="s">
-        <v>170</v>
-      </c>
+      <c r="I204" s="78"/>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B205" s="76"/>
       <c r="C205" s="74" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="D205" s="74" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E205" s="76" t="n">
         <v>9</v>
       </c>
       <c r="F205" s="77" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="G205" s="75" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="H205" s="10"/>
       <c r="I205" s="78" t="s">
@@ -17553,35 +17557,39 @@
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B206" s="76"/>
       <c r="C206" s="74" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D206" s="74" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E206" s="76" t="n">
-        <v>10</v>
-      </c>
-      <c r="F206" s="77"/>
+        <v>9</v>
+      </c>
+      <c r="F206" s="77" t="s">
+        <v>583</v>
+      </c>
       <c r="G206" s="75" t="n">
         <v>100000</v>
       </c>
       <c r="H206" s="10"/>
-      <c r="I206" s="78"/>
+      <c r="I206" s="78" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B207" s="76"/>
       <c r="C207" s="74" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D207" s="74" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E207" s="76" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F207" s="77"/>
       <c r="G207" s="75" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="H207" s="10"/>
       <c r="I207" s="78"/>
@@ -17589,13 +17597,13 @@
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B208" s="76"/>
       <c r="C208" s="74" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D208" s="74" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E208" s="76" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F208" s="77"/>
       <c r="G208" s="75" t="n">
@@ -17607,13 +17615,13 @@
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B209" s="76"/>
       <c r="C209" s="74" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D209" s="74" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E209" s="76" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F209" s="77"/>
       <c r="G209" s="75" t="n">
@@ -17625,17 +17633,17 @@
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B210" s="76"/>
       <c r="C210" s="74" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D210" s="74" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E210" s="76" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F210" s="77"/>
       <c r="G210" s="75" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="H210" s="10"/>
       <c r="I210" s="78"/>
@@ -17643,13 +17651,13 @@
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B211" s="76"/>
       <c r="C211" s="74" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D211" s="74" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E211" s="76" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F211" s="77"/>
       <c r="G211" s="75" t="n">
@@ -17661,17 +17669,17 @@
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B212" s="76"/>
       <c r="C212" s="74" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D212" s="74" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E212" s="76" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F212" s="77"/>
       <c r="G212" s="75" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="H212" s="10"/>
       <c r="I212" s="78"/>
@@ -17679,17 +17687,17 @@
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B213" s="76"/>
       <c r="C213" s="74" t="s">
-        <v>34</v>
+        <v>590</v>
       </c>
       <c r="D213" s="74" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E213" s="76" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F213" s="77"/>
       <c r="G213" s="75" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="H213" s="10"/>
       <c r="I213" s="78"/>
@@ -17697,17 +17705,17 @@
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B214" s="76"/>
       <c r="C214" s="74" t="s">
-        <v>589</v>
+        <v>34</v>
       </c>
       <c r="D214" s="74" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E214" s="76" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F214" s="77"/>
       <c r="G214" s="75" t="n">
-        <v>1000000</v>
+        <v>200000</v>
       </c>
       <c r="H214" s="10"/>
       <c r="I214" s="78"/>
@@ -17715,17 +17723,17 @@
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B215" s="76"/>
       <c r="C215" s="74" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D215" s="74" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E215" s="76" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F215" s="77"/>
       <c r="G215" s="75" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="H215" s="10"/>
       <c r="I215" s="78"/>
@@ -17733,13 +17741,13 @@
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B216" s="76"/>
       <c r="C216" s="74" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D216" s="74" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E216" s="76" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F216" s="77"/>
       <c r="G216" s="75" t="n">
@@ -17751,17 +17759,17 @@
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B217" s="76"/>
       <c r="C217" s="74" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D217" s="74" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E217" s="76" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F217" s="77"/>
       <c r="G217" s="75" t="n">
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="H217" s="10"/>
       <c r="I217" s="78"/>
@@ -17769,17 +17777,17 @@
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B218" s="76"/>
       <c r="C218" s="74" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D218" s="74" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E218" s="76" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F218" s="77"/>
       <c r="G218" s="75" t="n">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="H218" s="10"/>
       <c r="I218" s="78"/>
@@ -17787,13 +17795,13 @@
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B219" s="76"/>
       <c r="C219" s="74" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D219" s="74" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E219" s="76" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F219" s="77"/>
       <c r="G219" s="75" t="n">
@@ -17805,17 +17813,17 @@
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B220" s="76"/>
       <c r="C220" s="74" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D220" s="74" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="E220" s="76" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F220" s="77"/>
       <c r="G220" s="75" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="H220" s="10"/>
       <c r="I220" s="78"/>
@@ -17826,14 +17834,14 @@
         <v>597</v>
       </c>
       <c r="D221" s="74" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E221" s="76" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F221" s="77"/>
       <c r="G221" s="75" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="H221" s="10"/>
       <c r="I221" s="78"/>
@@ -17841,13 +17849,13 @@
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B222" s="76"/>
       <c r="C222" s="74" t="s">
+        <v>599</v>
+      </c>
+      <c r="D222" s="74" t="s">
         <v>598</v>
       </c>
-      <c r="D222" s="74" t="s">
-        <v>596</v>
-      </c>
       <c r="E222" s="76" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F222" s="77"/>
       <c r="G222" s="75" t="n">
@@ -17859,13 +17867,13 @@
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B223" s="76"/>
       <c r="C223" s="74" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D223" s="74" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E223" s="76" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F223" s="77"/>
       <c r="G223" s="75" t="n">
@@ -17877,17 +17885,17 @@
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="76"/>
       <c r="C224" s="74" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D224" s="74" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E224" s="76" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F224" s="77"/>
       <c r="G224" s="75" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="H224" s="10"/>
       <c r="I224" s="78"/>
@@ -17895,13 +17903,13 @@
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B225" s="76"/>
       <c r="C225" s="74" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D225" s="74" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E225" s="76" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F225" s="77"/>
       <c r="G225" s="75" t="n">
@@ -17913,17 +17921,17 @@
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="76"/>
       <c r="C226" s="74" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D226" s="74" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E226" s="76" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F226" s="77"/>
       <c r="G226" s="75" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="H226" s="10"/>
       <c r="I226" s="78"/>
@@ -17931,53 +17939,53 @@
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B227" s="76"/>
       <c r="C227" s="74" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D227" s="74" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E227" s="76" t="n">
-        <v>24</v>
-      </c>
-      <c r="F227" s="77" t="n">
-        <v>45235</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F227" s="77"/>
       <c r="G227" s="75" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="H227" s="10"/>
-      <c r="I227" s="78" t="s">
-        <v>170</v>
-      </c>
+      <c r="I227" s="78"/>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B228" s="76"/>
       <c r="C228" s="74" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D228" s="74" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E228" s="76" t="n">
-        <v>26</v>
-      </c>
-      <c r="F228" s="77"/>
+        <v>24</v>
+      </c>
+      <c r="F228" s="77" t="n">
+        <v>45235</v>
+      </c>
       <c r="G228" s="75" t="n">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="H228" s="10"/>
-      <c r="I228" s="78"/>
+      <c r="I228" s="78" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B229" s="76"/>
       <c r="C229" s="74" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D229" s="74" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E229" s="76" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F229" s="77"/>
       <c r="G229" s="75" t="n">
@@ -17989,17 +17997,17 @@
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="76"/>
       <c r="C230" s="74" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D230" s="74" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="E230" s="76" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="F230" s="77"/>
       <c r="G230" s="75" t="n">
-        <v>300000</v>
+        <v>100000</v>
       </c>
       <c r="H230" s="10"/>
       <c r="I230" s="78"/>
@@ -18010,14 +18018,14 @@
         <v>608</v>
       </c>
       <c r="D231" s="74" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="E231" s="76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F231" s="77"/>
       <c r="G231" s="75" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="H231" s="10"/>
       <c r="I231" s="78"/>
@@ -18025,13 +18033,13 @@
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="76"/>
       <c r="C232" s="74" t="s">
+        <v>610</v>
+      </c>
+      <c r="D232" s="74" t="s">
         <v>609</v>
       </c>
-      <c r="D232" s="74" t="s">
-        <v>607</v>
-      </c>
       <c r="E232" s="76" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F232" s="77"/>
       <c r="G232" s="75" t="n">
@@ -18043,17 +18051,17 @@
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B233" s="76"/>
       <c r="C233" s="74" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D233" s="74" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="E233" s="76" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F233" s="77"/>
       <c r="G233" s="75" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="H233" s="10"/>
       <c r="I233" s="78"/>
@@ -18061,17 +18069,17 @@
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="76"/>
       <c r="C234" s="74" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D234" s="74" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="E234" s="76" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F234" s="77"/>
       <c r="G234" s="75" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="H234" s="10"/>
       <c r="I234" s="78"/>
@@ -18079,13 +18087,13 @@
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B235" s="76"/>
       <c r="C235" s="74" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D235" s="74" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="E235" s="76" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F235" s="77"/>
       <c r="G235" s="75" t="n">
@@ -18097,17 +18105,17 @@
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="76"/>
       <c r="C236" s="74" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D236" s="74" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="E236" s="76" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F236" s="77"/>
       <c r="G236" s="75" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="H236" s="10"/>
       <c r="I236" s="78"/>
@@ -18115,17 +18123,17 @@
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B237" s="76"/>
       <c r="C237" s="74" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D237" s="74" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="E237" s="76" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F237" s="77"/>
       <c r="G237" s="75" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="H237" s="10"/>
       <c r="I237" s="78"/>
@@ -18133,13 +18141,13 @@
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B238" s="76"/>
       <c r="C238" s="74" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D238" s="74" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="E238" s="76" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F238" s="77"/>
       <c r="G238" s="75" t="n">
@@ -18151,17 +18159,17 @@
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B239" s="76"/>
       <c r="C239" s="74" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D239" s="74" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="E239" s="76" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F239" s="77"/>
       <c r="G239" s="75" t="n">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="H239" s="10"/>
       <c r="I239" s="78"/>
@@ -18169,17 +18177,17 @@
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B240" s="76"/>
       <c r="C240" s="74" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D240" s="74" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="E240" s="76" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F240" s="77"/>
       <c r="G240" s="75" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="H240" s="10"/>
       <c r="I240" s="78"/>
@@ -18190,14 +18198,14 @@
         <v>619</v>
       </c>
       <c r="D241" s="74" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E241" s="76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F241" s="77"/>
       <c r="G241" s="75" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="H241" s="10"/>
       <c r="I241" s="78"/>
@@ -18205,17 +18213,17 @@
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B242" s="76"/>
       <c r="C242" s="74" t="s">
+        <v>621</v>
+      </c>
+      <c r="D242" s="74" t="s">
         <v>620</v>
       </c>
-      <c r="D242" s="74" t="s">
-        <v>618</v>
-      </c>
       <c r="E242" s="76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F242" s="77"/>
       <c r="G242" s="75" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="H242" s="10"/>
       <c r="I242" s="78"/>
@@ -18223,13 +18231,13 @@
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B243" s="76"/>
       <c r="C243" s="74" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D243" s="74" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E243" s="76" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F243" s="77"/>
       <c r="G243" s="75" t="n">
@@ -18241,17 +18249,17 @@
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B244" s="76"/>
       <c r="C244" s="74" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D244" s="74" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E244" s="76" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F244" s="77"/>
       <c r="G244" s="75" t="n">
-        <v>400000</v>
+        <v>0</v>
       </c>
       <c r="H244" s="10"/>
       <c r="I244" s="78"/>
@@ -18259,17 +18267,17 @@
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B245" s="76"/>
       <c r="C245" s="74" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D245" s="74" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E245" s="76" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F245" s="77"/>
       <c r="G245" s="75" t="n">
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="H245" s="10"/>
       <c r="I245" s="78"/>
@@ -18277,20 +18285,20 @@
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B246" s="76"/>
       <c r="C246" s="74" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D246" s="74" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="E246" s="76" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F246" s="77"/>
       <c r="G246" s="75" t="n">
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="H246" s="10"/>
-      <c r="I246" s="62"/>
+      <c r="I246" s="78"/>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="76"/>
@@ -18298,28 +18306,28 @@
         <v>626</v>
       </c>
       <c r="D247" s="74" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E247" s="76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F247" s="77"/>
       <c r="G247" s="75" t="n">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="H247" s="10"/>
-      <c r="I247" s="78"/>
+      <c r="I247" s="62"/>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="76"/>
       <c r="C248" s="74" t="s">
+        <v>628</v>
+      </c>
+      <c r="D248" s="74" t="s">
         <v>627</v>
       </c>
-      <c r="D248" s="74" t="s">
-        <v>625</v>
-      </c>
       <c r="E248" s="76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F248" s="77"/>
       <c r="G248" s="75" t="n">
@@ -18331,17 +18339,17 @@
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B249" s="76"/>
       <c r="C249" s="74" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D249" s="74" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E249" s="76" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F249" s="77"/>
       <c r="G249" s="75" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="H249" s="10"/>
       <c r="I249" s="78"/>
@@ -18349,24 +18357,20 @@
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="76"/>
       <c r="C250" s="74" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D250" s="74" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E250" s="76" t="n">
         <v>8</v>
       </c>
-      <c r="F250" s="77" t="s">
-        <v>629</v>
-      </c>
+      <c r="F250" s="77"/>
       <c r="G250" s="75" t="n">
         <v>100000</v>
       </c>
       <c r="H250" s="10"/>
-      <c r="I250" s="78" t="s">
-        <v>170</v>
-      </c>
+      <c r="I250" s="78"/>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B251" s="76"/>
@@ -18374,32 +18378,36 @@
         <v>630</v>
       </c>
       <c r="D251" s="74" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E251" s="76" t="n">
-        <v>10</v>
-      </c>
-      <c r="F251" s="77"/>
+        <v>8</v>
+      </c>
+      <c r="F251" s="77" t="s">
+        <v>631</v>
+      </c>
       <c r="G251" s="75" t="n">
-        <v>300000</v>
+        <v>100000</v>
       </c>
       <c r="H251" s="10"/>
-      <c r="I251" s="78"/>
+      <c r="I251" s="78" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="76"/>
       <c r="C252" s="74" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D252" s="74" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E252" s="76" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F252" s="77"/>
       <c r="G252" s="75" t="n">
-        <v>80000</v>
+        <v>300000</v>
       </c>
       <c r="H252" s="10"/>
       <c r="I252" s="78"/>
@@ -18407,17 +18415,17 @@
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B253" s="76"/>
       <c r="C253" s="74" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D253" s="74" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E253" s="76" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F253" s="77"/>
       <c r="G253" s="75" t="n">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="H253" s="10"/>
       <c r="I253" s="78"/>
@@ -18425,13 +18433,13 @@
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B254" s="76"/>
       <c r="C254" s="74" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D254" s="74" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E254" s="76" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F254" s="77"/>
       <c r="G254" s="75" t="n">
@@ -18443,13 +18451,13 @@
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B255" s="76"/>
       <c r="C255" s="74" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D255" s="74" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E255" s="76" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F255" s="77"/>
       <c r="G255" s="75" t="n">
@@ -18461,17 +18469,17 @@
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B256" s="76"/>
       <c r="C256" s="74" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D256" s="74" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E256" s="76" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F256" s="77"/>
       <c r="G256" s="75" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="H256" s="10"/>
       <c r="I256" s="78"/>
@@ -18479,17 +18487,17 @@
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B257" s="76"/>
       <c r="C257" s="74" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D257" s="74" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E257" s="76" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F257" s="77"/>
       <c r="G257" s="75" t="n">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="H257" s="10"/>
       <c r="I257" s="78"/>
@@ -18497,17 +18505,17 @@
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B258" s="76"/>
       <c r="C258" s="74" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D258" s="74" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E258" s="76" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F258" s="77"/>
       <c r="G258" s="75" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="H258" s="10"/>
       <c r="I258" s="78"/>
@@ -18515,13 +18523,13 @@
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B259" s="76"/>
       <c r="C259" s="74" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D259" s="74" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E259" s="76" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F259" s="77"/>
       <c r="G259" s="75" t="n">
@@ -18533,13 +18541,13 @@
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="76"/>
       <c r="C260" s="74" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D260" s="74" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E260" s="76" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F260" s="77"/>
       <c r="G260" s="75" t="n">
@@ -18551,13 +18559,13 @@
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B261" s="76"/>
       <c r="C261" s="74" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D261" s="74" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E261" s="76" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F261" s="77"/>
       <c r="G261" s="75" t="n">
@@ -18569,13 +18577,13 @@
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B262" s="76"/>
       <c r="C262" s="74" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D262" s="74" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="E262" s="76" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="F262" s="77"/>
       <c r="G262" s="75" t="n">
@@ -18590,14 +18598,14 @@
         <v>643</v>
       </c>
       <c r="D263" s="74" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="E263" s="76" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F263" s="77"/>
       <c r="G263" s="75" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="H263" s="10"/>
       <c r="I263" s="78"/>
@@ -18605,58 +18613,76 @@
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B264" s="76"/>
       <c r="C264" s="74" t="s">
+        <v>645</v>
+      </c>
+      <c r="D264" s="74" t="s">
         <v>644</v>
       </c>
-      <c r="D264" s="74" t="s">
-        <v>642</v>
-      </c>
       <c r="E264" s="76" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F264" s="77"/>
       <c r="G264" s="75" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="H264" s="10"/>
       <c r="I264" s="78"/>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B265" s="10"/>
+      <c r="B265" s="76"/>
       <c r="C265" s="74" t="s">
-        <v>645</v>
-      </c>
-      <c r="D265" s="10"/>
-      <c r="E265" s="10"/>
-      <c r="F265" s="79"/>
-      <c r="G265" s="80" t="n">
-        <v>5000000</v>
+        <v>646</v>
+      </c>
+      <c r="D265" s="74" t="s">
+        <v>644</v>
+      </c>
+      <c r="E265" s="76" t="n">
+        <v>9</v>
+      </c>
+      <c r="F265" s="77"/>
+      <c r="G265" s="75" t="n">
+        <v>0</v>
       </c>
       <c r="H265" s="10"/>
       <c r="I265" s="78"/>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B266" s="81" t="s">
-        <v>646</v>
-      </c>
-      <c r="C266" s="81"/>
-      <c r="D266" s="81"/>
-      <c r="E266" s="81"/>
-      <c r="F266" s="82"/>
-      <c r="G266" s="83" t="n">
-        <f aca="false">SUM(G7:G265)</f>
-        <v>71690000</v>
-      </c>
-      <c r="H266" s="1"/>
-    </row>
-    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G268" s="84"/>
+      <c r="B266" s="10"/>
+      <c r="C266" s="74" t="s">
+        <v>647</v>
+      </c>
+      <c r="D266" s="10"/>
+      <c r="E266" s="10"/>
+      <c r="F266" s="79"/>
+      <c r="G266" s="80" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="H266" s="10"/>
+      <c r="I266" s="78"/>
+    </row>
+    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B267" s="81" t="s">
+        <v>648</v>
+      </c>
+      <c r="C267" s="81"/>
+      <c r="D267" s="81"/>
+      <c r="E267" s="81"/>
+      <c r="F267" s="82"/>
+      <c r="G267" s="83" t="n">
+        <f aca="false">SUM(G7:G266)</f>
+        <v>71790000</v>
+      </c>
+      <c r="H267" s="1"/>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G269" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B266:E266"/>
+    <mergeCell ref="B267:E267"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
